--- a/capiq_data/in_process_data/IQ270747.xlsx
+++ b/capiq_data/in_process_data/IQ270747.xlsx
@@ -1,22 +1,22 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23628"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23801"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\yedid\Desktop\capiq_3\in_process_data\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\yedid\Desktop\credit_rating_predictions-main\capiq_data\in_process_data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DA51692A-78C9-4AC5-B261-F53681B5F62E}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D99E9C09-CA3C-45A4-89E1-C4DC028F3ECA}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="4800" yWindow="98" windowWidth="14400" windowHeight="8325" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-98" yWindow="-98" windowWidth="19396" windowHeight="11596" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet" sheetId="1" r:id="rId1"/>
   </sheets>
   <definedNames>
-    <definedName name="CIQWBGuid" hidden="1">"20f3d195-eeed-480a-94e7-468b8f5f05a3"</definedName>
+    <definedName name="CIQWBGuid" hidden="1">"a597ebce-7cee-4cae-a35c-ecbfe4411263"</definedName>
     <definedName name="CIQWBInfo" hidden="1">"{ ""CIQVersion"":""9.45.614.5792"" }"</definedName>
     <definedName name="IQ_CH">110000</definedName>
     <definedName name="IQ_CQ">5000</definedName>
@@ -41,40 +41,40 @@
     <definedName name="IQ_LTMMONTH" hidden="1">120000</definedName>
     <definedName name="IQ_MONTH">15000</definedName>
     <definedName name="IQ_MTD" hidden="1">800000</definedName>
-    <definedName name="IQ_NAMES_REVISION_DATE_" hidden="1">44257.9003703704</definedName>
+    <definedName name="IQ_NAMES_REVISION_DATE_" hidden="1">44278.8607986111</definedName>
     <definedName name="IQ_NTM">6000</definedName>
     <definedName name="IQ_QTD" hidden="1">750000</definedName>
     <definedName name="IQ_TODAY" hidden="1">0</definedName>
     <definedName name="IQ_WEEK">50000</definedName>
     <definedName name="IQ_YTD">3000</definedName>
     <definedName name="IQ_YTDMONTH" hidden="1">130000</definedName>
-    <definedName name="IQRA1" hidden="1">Sheet!$A$2:$A$42</definedName>
-    <definedName name="IQRAA1" hidden="1">Sheet!$AA$2:$AA$42</definedName>
-    <definedName name="IQRB1" hidden="1">Sheet!$B$2:$B$42</definedName>
-    <definedName name="IQRC1" hidden="1">Sheet!$C$2:$C$42</definedName>
-    <definedName name="IQRD1" hidden="1">Sheet!$D$2:$D$42</definedName>
-    <definedName name="IQRE1" hidden="1">Sheet!$E$2:$E$42</definedName>
-    <definedName name="IQRF1" hidden="1">Sheet!$F$2:$F$42</definedName>
-    <definedName name="IQRG1" hidden="1">Sheet!$G$2:$G$42</definedName>
-    <definedName name="IQRH1" hidden="1">Sheet!$H$2:$H$42</definedName>
-    <definedName name="IQRI1" hidden="1">Sheet!$I$2:$I$42</definedName>
-    <definedName name="IQRJ1" hidden="1">Sheet!$J$2:$J$42</definedName>
-    <definedName name="IQRK1" hidden="1">Sheet!$K$2:$K$42</definedName>
-    <definedName name="IQRL1" hidden="1">Sheet!$L$2:$L$42</definedName>
-    <definedName name="IQRM1" hidden="1">Sheet!$M$2:$M$42</definedName>
-    <definedName name="IQRN1" hidden="1">Sheet!$N$2:$N$42</definedName>
-    <definedName name="IQRO1" hidden="1">Sheet!$O$2:$O$42</definedName>
-    <definedName name="IQRP1" hidden="1">Sheet!$P$2:$P$42</definedName>
-    <definedName name="IQRQ1" hidden="1">Sheet!$Q$2:$Q$42</definedName>
-    <definedName name="IQRR1" hidden="1">Sheet!$R$2:$R$42</definedName>
-    <definedName name="IQRS1" hidden="1">Sheet!$S$2:$S$42</definedName>
-    <definedName name="IQRT1" hidden="1">Sheet!$T$2:$T$42</definedName>
-    <definedName name="IQRU1" hidden="1">Sheet!$U$2:$U$42</definedName>
-    <definedName name="IQRV1" hidden="1">Sheet!$V$2:$V$42</definedName>
-    <definedName name="IQRW1" hidden="1">Sheet!$W$2:$W$42</definedName>
-    <definedName name="IQRX1" hidden="1">Sheet!$X$2:$X$42</definedName>
-    <definedName name="IQRY1" hidden="1">Sheet!$Y$2:$Y$42</definedName>
-    <definedName name="IQRZ1" hidden="1">Sheet!$Z$2:$Z$42</definedName>
+    <definedName name="IQRA1" hidden="1">Sheet!$A$2:$A$82</definedName>
+    <definedName name="IQRAA1" hidden="1">Sheet!$AA$2:$AA$82</definedName>
+    <definedName name="IQRB1" hidden="1">Sheet!$B$2:$B$82</definedName>
+    <definedName name="IQRC1" hidden="1">Sheet!$C$2:$C$82</definedName>
+    <definedName name="IQRD1" hidden="1">Sheet!$D$2:$D$82</definedName>
+    <definedName name="IQRE1" hidden="1">Sheet!$E$2:$E$82</definedName>
+    <definedName name="IQRF1" hidden="1">Sheet!$F$2:$F$82</definedName>
+    <definedName name="IQRG1" hidden="1">Sheet!$G$2:$G$82</definedName>
+    <definedName name="IQRH1" hidden="1">Sheet!$H$2:$H$82</definedName>
+    <definedName name="IQRI1" hidden="1">Sheet!$I$2:$I$82</definedName>
+    <definedName name="IQRJ1" hidden="1">Sheet!$J$2:$J$82</definedName>
+    <definedName name="IQRK1" hidden="1">Sheet!$K$2:$K$82</definedName>
+    <definedName name="IQRL1" hidden="1">Sheet!$L$2:$L$82</definedName>
+    <definedName name="IQRM1" hidden="1">Sheet!$M$2:$M$82</definedName>
+    <definedName name="IQRN1" hidden="1">Sheet!$N$2:$N$82</definedName>
+    <definedName name="IQRO1" hidden="1">Sheet!$O$2:$O$82</definedName>
+    <definedName name="IQRP1" hidden="1">Sheet!$P$2:$P$82</definedName>
+    <definedName name="IQRQ1" hidden="1">Sheet!$Q$2:$Q$82</definedName>
+    <definedName name="IQRR1" hidden="1">Sheet!$R$2:$R$82</definedName>
+    <definedName name="IQRS1" hidden="1">Sheet!$S$2:$S$82</definedName>
+    <definedName name="IQRT1" hidden="1">Sheet!$T$2:$T$82</definedName>
+    <definedName name="IQRU1" hidden="1">Sheet!$U$2:$U$82</definedName>
+    <definedName name="IQRV1" hidden="1">Sheet!$V$2:$V$82</definedName>
+    <definedName name="IQRW1" hidden="1">Sheet!$W$2:$W$82</definedName>
+    <definedName name="IQRX1" hidden="1">Sheet!$X$2:$X$82</definedName>
+    <definedName name="IQRY1" hidden="1">Sheet!$Y$2:$Y$82</definedName>
+    <definedName name="IQRZ1" hidden="1">Sheet!$Z$2:$Z$82</definedName>
   </definedNames>
   <calcPr calcId="191029"/>
   <extLst>
@@ -92,7 +92,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="68" uniqueCount="68">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="108" uniqueCount="108">
   <si>
     <t>Date</t>
   </si>
@@ -173,6 +173,126 @@
   </si>
   <si>
     <t>IQ_NI</t>
+  </si>
+  <si>
+    <t>FQ42000</t>
+  </si>
+  <si>
+    <t>FQ12001</t>
+  </si>
+  <si>
+    <t>FQ22001</t>
+  </si>
+  <si>
+    <t>FQ32001</t>
+  </si>
+  <si>
+    <t>FQ42001</t>
+  </si>
+  <si>
+    <t>FQ12002</t>
+  </si>
+  <si>
+    <t>FQ22002</t>
+  </si>
+  <si>
+    <t>FQ32002</t>
+  </si>
+  <si>
+    <t>FQ42002</t>
+  </si>
+  <si>
+    <t>FQ12003</t>
+  </si>
+  <si>
+    <t>FQ22003</t>
+  </si>
+  <si>
+    <t>FQ32003</t>
+  </si>
+  <si>
+    <t>FQ42003</t>
+  </si>
+  <si>
+    <t>FQ12004</t>
+  </si>
+  <si>
+    <t>FQ22004</t>
+  </si>
+  <si>
+    <t>FQ32004</t>
+  </si>
+  <si>
+    <t>FQ42004</t>
+  </si>
+  <si>
+    <t>FQ12005</t>
+  </si>
+  <si>
+    <t>FQ22005</t>
+  </si>
+  <si>
+    <t>FQ32005</t>
+  </si>
+  <si>
+    <t>FQ42005</t>
+  </si>
+  <si>
+    <t>FQ12006</t>
+  </si>
+  <si>
+    <t>FQ22006</t>
+  </si>
+  <si>
+    <t>FQ32006</t>
+  </si>
+  <si>
+    <t>FQ42006</t>
+  </si>
+  <si>
+    <t>FQ12007</t>
+  </si>
+  <si>
+    <t>FQ22007</t>
+  </si>
+  <si>
+    <t>FQ32007</t>
+  </si>
+  <si>
+    <t>FQ42007</t>
+  </si>
+  <si>
+    <t>FQ12008</t>
+  </si>
+  <si>
+    <t>FQ22008</t>
+  </si>
+  <si>
+    <t>FQ32008</t>
+  </si>
+  <si>
+    <t>FQ42008</t>
+  </si>
+  <si>
+    <t>FQ12009</t>
+  </si>
+  <si>
+    <t>FQ22009</t>
+  </si>
+  <si>
+    <t>FQ32009</t>
+  </si>
+  <si>
+    <t>FQ42009</t>
+  </si>
+  <si>
+    <t>FQ12010</t>
+  </si>
+  <si>
+    <t>FQ22010</t>
+  </si>
+  <si>
+    <t>FQ32010</t>
   </si>
   <si>
     <t>FQ42010</t>
@@ -639,7 +759,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:AA42"/>
+  <dimension ref="A1:AA82"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -733,31 +853,31 @@
     </row>
     <row r="2" spans="1:27" x14ac:dyDescent="0.45">
       <c r="A2" s="1">
-        <v>40543</v>
+        <v>36891</v>
       </c>
       <c r="B2" t="s">
         <v>27</v>
       </c>
       <c r="C2">
-        <v>65.161000000000001</v>
+        <v>18.907</v>
       </c>
       <c r="D2">
-        <v>573.76599999999996</v>
+        <v>197.839</v>
       </c>
       <c r="E2">
-        <v>270.13299999999998</v>
+        <v>106.12</v>
       </c>
       <c r="F2">
-        <v>298.61700000000002</v>
+        <v>97.808999999999997</v>
       </c>
       <c r="G2">
-        <v>1085.6980000000001</v>
+        <v>284.45499999999998</v>
       </c>
       <c r="H2">
-        <v>1468.2829999999999</v>
+        <v>402.464</v>
       </c>
       <c r="I2">
-        <v>60.473999999999997</v>
+        <v>19.898</v>
       </c>
       <c r="J2">
         <v>0</v>
@@ -772,75 +892,75 @@
         <v>0</v>
       </c>
       <c r="N2">
-        <v>162.185</v>
+        <v>36.579000000000001</v>
       </c>
       <c r="O2">
-        <v>185.77099999999999</v>
+        <v>43.206000000000003</v>
       </c>
       <c r="P2">
         <v>0</v>
       </c>
       <c r="Q2">
-        <v>-28.872</v>
+        <v>-4.2080000000000002</v>
       </c>
       <c r="R2">
-        <v>40543</v>
+        <v>36891</v>
       </c>
       <c r="S2">
-        <v>13285</v>
+        <v>6477</v>
       </c>
       <c r="T2">
-        <v>1282.5119999999999</v>
+        <v>359.25799999999998</v>
       </c>
       <c r="U2">
-        <v>143.69300000000001</v>
+        <v>19.71</v>
       </c>
       <c r="V2">
-        <v>74.194999999999993</v>
+        <v>16.899999999999999</v>
       </c>
       <c r="W2">
-        <v>-1.2999999999999999E-4</v>
+        <v>0</v>
       </c>
       <c r="X2">
-        <v>-61.920999999999999</v>
+        <v>0</v>
       </c>
       <c r="Y2">
         <v>0</v>
       </c>
       <c r="Z2">
-        <v>-1.4119999999999999</v>
+        <v>-12.997</v>
       </c>
       <c r="AA2">
-        <v>65.161000000000001</v>
+        <v>18.907</v>
       </c>
     </row>
     <row r="3" spans="1:27" x14ac:dyDescent="0.45">
       <c r="A3" s="1">
-        <v>40633</v>
+        <v>36981</v>
       </c>
       <c r="B3" t="s">
         <v>28</v>
       </c>
       <c r="C3">
-        <v>79.546999999999997</v>
+        <v>20.739000000000001</v>
       </c>
       <c r="D3">
-        <v>640.58299999999997</v>
+        <v>203.374</v>
       </c>
       <c r="E3">
-        <v>325.685</v>
+        <v>113.501</v>
       </c>
       <c r="F3">
-        <v>333.38</v>
+        <v>104.55500000000001</v>
       </c>
       <c r="G3">
-        <v>1132.921</v>
+        <v>311.38799999999998</v>
       </c>
       <c r="H3">
-        <v>1524.6130000000001</v>
+        <v>432.935</v>
       </c>
       <c r="I3">
-        <v>68.519000000000005</v>
+        <v>21.181000000000001</v>
       </c>
       <c r="J3">
         <v>0</v>
@@ -855,75 +975,75 @@
         <v>0</v>
       </c>
       <c r="N3">
-        <v>209.51599999999999</v>
+        <v>50.378</v>
       </c>
       <c r="O3">
-        <v>233.096</v>
+        <v>57.005000000000003</v>
       </c>
       <c r="P3">
         <v>0</v>
       </c>
       <c r="Q3">
-        <v>-18.844999999999999</v>
+        <v>16.036000000000001</v>
       </c>
       <c r="R3">
-        <v>40633</v>
+        <v>36981</v>
       </c>
       <c r="S3">
-        <v>11433</v>
+        <v>0</v>
       </c>
       <c r="T3">
-        <v>1291.5170000000001</v>
+        <v>375.93</v>
       </c>
       <c r="U3">
-        <v>124.848</v>
+        <v>35.746000000000002</v>
       </c>
       <c r="V3">
-        <v>74.284000000000006</v>
+        <v>26.055</v>
       </c>
       <c r="W3">
-        <v>-73.715000000000003</v>
+        <v>-3.415</v>
       </c>
       <c r="X3">
-        <v>-73.715000000000003</v>
+        <v>-3.415</v>
       </c>
       <c r="Y3">
         <v>0</v>
       </c>
       <c r="Z3">
-        <v>0.46300000000000002</v>
+        <v>2.012</v>
       </c>
       <c r="AA3">
-        <v>79.546999999999997</v>
+        <v>20.739000000000001</v>
       </c>
     </row>
     <row r="4" spans="1:27" x14ac:dyDescent="0.45">
       <c r="A4" s="1">
-        <v>40724</v>
+        <v>37072</v>
       </c>
       <c r="B4" t="s">
         <v>29</v>
       </c>
       <c r="C4">
-        <v>94.111999999999995</v>
+        <v>19.018000000000001</v>
       </c>
       <c r="D4">
-        <v>701.73</v>
+        <v>207.44200000000001</v>
       </c>
       <c r="E4">
-        <v>357.19499999999999</v>
+        <v>112.91800000000001</v>
       </c>
       <c r="F4">
-        <v>366.233</v>
+        <v>104.631</v>
       </c>
       <c r="G4">
-        <v>1171.8150000000001</v>
+        <v>319.81700000000001</v>
       </c>
       <c r="H4">
-        <v>1581.8710000000001</v>
+        <v>444.67</v>
       </c>
       <c r="I4">
-        <v>83.12</v>
+        <v>24.387</v>
       </c>
       <c r="J4">
         <v>0</v>
@@ -938,75 +1058,75 @@
         <v>0</v>
       </c>
       <c r="N4">
-        <v>204.39400000000001</v>
+        <v>42.527999999999999</v>
       </c>
       <c r="O4">
-        <v>227.7</v>
+        <v>49.155000000000001</v>
       </c>
       <c r="P4">
         <v>0</v>
       </c>
       <c r="Q4">
-        <v>-35.439</v>
+        <v>10.967000000000001</v>
       </c>
       <c r="R4">
-        <v>40724</v>
+        <v>37072</v>
       </c>
       <c r="S4">
-        <v>12136</v>
+        <v>0</v>
       </c>
       <c r="T4">
-        <v>1354.171</v>
+        <v>395.51499999999999</v>
       </c>
       <c r="U4">
-        <v>89.409000000000006</v>
+        <v>46.713000000000001</v>
       </c>
       <c r="V4">
-        <v>26.992999999999999</v>
+        <v>16.7</v>
       </c>
       <c r="W4">
-        <v>-38.332000000000001</v>
+        <v>0</v>
       </c>
       <c r="X4">
-        <v>-32.978999999999999</v>
+        <v>0</v>
       </c>
       <c r="Y4">
         <v>0</v>
       </c>
       <c r="Z4">
-        <v>4.5129999999999999</v>
+        <v>1.8480000000000001</v>
       </c>
       <c r="AA4">
-        <v>94.111999999999995</v>
+        <v>19.018000000000001</v>
       </c>
     </row>
     <row r="5" spans="1:27" x14ac:dyDescent="0.45">
       <c r="A5" s="1">
-        <v>40816</v>
+        <v>37164</v>
       </c>
       <c r="B5" t="s">
         <v>30</v>
       </c>
       <c r="C5">
-        <v>96.799000000000007</v>
+        <v>17.001000000000001</v>
       </c>
       <c r="D5">
-        <v>726.74199999999996</v>
+        <v>209.39699999999999</v>
       </c>
       <c r="E5">
-        <v>361.07499999999999</v>
+        <v>121.753</v>
       </c>
       <c r="F5">
-        <v>377.38099999999997</v>
+        <v>104.774</v>
       </c>
       <c r="G5">
-        <v>1217.364</v>
+        <v>349.464</v>
       </c>
       <c r="H5">
-        <v>1651.02</v>
+        <v>477.983</v>
       </c>
       <c r="I5">
-        <v>86.838999999999999</v>
+        <v>28.584</v>
       </c>
       <c r="J5">
         <v>0</v>
@@ -1021,75 +1141,75 @@
         <v>0</v>
       </c>
       <c r="N5">
-        <v>218.869</v>
+        <v>59.668999999999997</v>
       </c>
       <c r="O5">
-        <v>242.19399999999999</v>
+        <v>66.296000000000006</v>
       </c>
       <c r="P5">
         <v>0</v>
       </c>
       <c r="Q5">
-        <v>21.638999999999999</v>
+        <v>9.5039999999999996</v>
       </c>
       <c r="R5">
-        <v>40816</v>
+        <v>37164</v>
       </c>
       <c r="S5">
-        <v>12703</v>
+        <v>0</v>
       </c>
       <c r="T5">
-        <v>1408.826</v>
+        <v>411.68700000000001</v>
       </c>
       <c r="U5">
-        <v>111.048</v>
+        <v>56.216999999999999</v>
       </c>
       <c r="V5">
-        <v>92.903999999999996</v>
+        <v>29.033999999999999</v>
       </c>
       <c r="W5">
-        <v>-38.366999999999997</v>
+        <v>0</v>
       </c>
       <c r="X5">
-        <v>-35.213000000000001</v>
+        <v>0</v>
       </c>
       <c r="Y5">
         <v>0</v>
       </c>
       <c r="Z5">
-        <v>0.04</v>
+        <v>-0.83499999999999996</v>
       </c>
       <c r="AA5">
-        <v>96.798000000000002</v>
+        <v>17.001000000000001</v>
       </c>
     </row>
     <row r="6" spans="1:27" x14ac:dyDescent="0.45">
       <c r="A6" s="1">
-        <v>40908</v>
+        <v>37256</v>
       </c>
       <c r="B6" t="s">
         <v>31</v>
       </c>
       <c r="C6">
-        <v>87.471000000000004</v>
+        <v>13.353999999999999</v>
       </c>
       <c r="D6">
-        <v>697.80399999999997</v>
+        <v>198.07</v>
       </c>
       <c r="E6">
-        <v>338.59399999999999</v>
+        <v>101.35599999999999</v>
       </c>
       <c r="F6">
-        <v>357.178</v>
+        <v>98.466999999999999</v>
       </c>
       <c r="G6">
-        <v>1236.1379999999999</v>
+        <v>341.24099999999999</v>
       </c>
       <c r="H6">
-        <v>1684.9480000000001</v>
+        <v>475.24400000000003</v>
       </c>
       <c r="I6">
-        <v>73.778999999999996</v>
+        <v>20.100000000000001</v>
       </c>
       <c r="J6">
         <v>0</v>
@@ -1104,75 +1224,75 @@
         <v>0</v>
       </c>
       <c r="N6">
-        <v>187.81800000000001</v>
+        <v>40.561</v>
       </c>
       <c r="O6">
-        <v>225.97200000000001</v>
+        <v>50.356000000000002</v>
       </c>
       <c r="P6">
         <v>0</v>
       </c>
       <c r="Q6">
-        <v>6.6280000000000001</v>
+        <v>-8.9529999999999994</v>
       </c>
       <c r="R6">
-        <v>40908</v>
+        <v>37256</v>
       </c>
       <c r="S6">
-        <v>15168</v>
+        <v>6536</v>
       </c>
       <c r="T6">
-        <v>1458.9760000000001</v>
+        <v>424.88799999999998</v>
       </c>
       <c r="U6">
-        <v>117.676</v>
+        <v>47.264000000000003</v>
       </c>
       <c r="V6">
-        <v>74.308000000000007</v>
+        <v>19.937999999999999</v>
       </c>
       <c r="W6">
-        <v>-41.326999999999998</v>
+        <v>0</v>
       </c>
       <c r="X6">
-        <v>-39.911999999999999</v>
+        <v>0</v>
       </c>
       <c r="Y6">
         <v>0</v>
       </c>
       <c r="Z6">
-        <v>-0.96199999999999997</v>
+        <v>-20.66</v>
       </c>
       <c r="AA6">
-        <v>87.471000000000004</v>
+        <v>13.353999999999999</v>
       </c>
     </row>
     <row r="7" spans="1:27" x14ac:dyDescent="0.45">
       <c r="A7" s="1">
-        <v>40999</v>
+        <v>37346</v>
       </c>
       <c r="B7" t="s">
         <v>32</v>
       </c>
       <c r="C7">
-        <v>100.194</v>
+        <v>17.704999999999998</v>
       </c>
       <c r="D7">
-        <v>768.875</v>
+        <v>214.58199999999999</v>
       </c>
       <c r="E7">
-        <v>386.88200000000001</v>
+        <v>115.663</v>
       </c>
       <c r="F7">
-        <v>394.17700000000002</v>
+        <v>106.577</v>
       </c>
       <c r="G7">
-        <v>1349.9749999999999</v>
+        <v>366.00099999999998</v>
       </c>
       <c r="H7">
-        <v>1813.3320000000001</v>
+        <v>504.62299999999999</v>
       </c>
       <c r="I7">
-        <v>76.113</v>
+        <v>24.306999999999999</v>
       </c>
       <c r="J7">
         <v>0</v>
@@ -1187,75 +1307,75 @@
         <v>0</v>
       </c>
       <c r="N7">
-        <v>236.227</v>
+        <v>56.003</v>
       </c>
       <c r="O7">
-        <v>274.36399999999998</v>
+        <v>65.798000000000002</v>
       </c>
       <c r="P7">
         <v>0</v>
       </c>
       <c r="Q7">
-        <v>81.201999999999998</v>
+        <v>0.52700000000000002</v>
       </c>
       <c r="R7">
-        <v>40999</v>
+        <v>37346</v>
       </c>
       <c r="S7">
-        <v>13036</v>
+        <v>0</v>
       </c>
       <c r="T7">
-        <v>1538.9680000000001</v>
+        <v>438.82499999999999</v>
       </c>
       <c r="U7">
-        <v>198.87799999999999</v>
+        <v>47.790999999999997</v>
       </c>
       <c r="V7">
-        <v>132.18799999999999</v>
+        <v>21.102</v>
       </c>
       <c r="W7">
-        <v>-50.197000000000003</v>
+        <v>-3.794</v>
       </c>
       <c r="X7">
-        <v>-24.215</v>
+        <v>-3.794</v>
       </c>
       <c r="Y7">
         <v>0</v>
       </c>
       <c r="Z7">
-        <v>-2.9000000000000001E-2</v>
+        <v>-12.484999999999999</v>
       </c>
       <c r="AA7">
-        <v>100.194</v>
+        <v>17.704999999999998</v>
       </c>
     </row>
     <row r="8" spans="1:27" x14ac:dyDescent="0.45">
       <c r="A8" s="1">
-        <v>41090</v>
+        <v>37437</v>
       </c>
       <c r="B8" t="s">
         <v>33</v>
       </c>
       <c r="C8">
-        <v>112.306</v>
+        <v>21.831</v>
       </c>
       <c r="D8">
-        <v>804.89</v>
+        <v>233.48400000000001</v>
       </c>
       <c r="E8">
-        <v>399.99299999999999</v>
+        <v>122.96899999999999</v>
       </c>
       <c r="F8">
-        <v>415.15100000000001</v>
+        <v>115.485</v>
       </c>
       <c r="G8">
-        <v>1378.096</v>
+        <v>380.11</v>
       </c>
       <c r="H8">
-        <v>1850.7470000000001</v>
+        <v>525.98199999999997</v>
       </c>
       <c r="I8">
-        <v>81.242999999999995</v>
+        <v>29.709</v>
       </c>
       <c r="J8">
         <v>0</v>
@@ -1270,75 +1390,75 @@
         <v>0</v>
       </c>
       <c r="N8">
-        <v>210.51900000000001</v>
+        <v>54.683999999999997</v>
       </c>
       <c r="O8">
-        <v>249.85</v>
+        <v>64.478999999999999</v>
       </c>
       <c r="P8">
         <v>0</v>
       </c>
       <c r="Q8">
-        <v>-12.962</v>
+        <v>-1.0980000000000001</v>
       </c>
       <c r="R8">
-        <v>41090</v>
+        <v>37437</v>
       </c>
       <c r="S8">
-        <v>13400</v>
+        <v>0</v>
       </c>
       <c r="T8">
-        <v>1600.8969999999999</v>
+        <v>461.50299999999999</v>
       </c>
       <c r="U8">
-        <v>185.916</v>
+        <v>46.692999999999998</v>
       </c>
       <c r="V8">
-        <v>58.243000000000002</v>
+        <v>9.17</v>
       </c>
       <c r="W8">
-        <v>-50.332000000000001</v>
+        <v>0</v>
       </c>
       <c r="X8">
-        <v>-48.01</v>
+        <v>0</v>
       </c>
       <c r="Y8">
         <v>0</v>
       </c>
       <c r="Z8">
-        <v>2.8000000000000001E-2</v>
+        <v>-0.14099999999999999</v>
       </c>
       <c r="AA8">
-        <v>112.306</v>
+        <v>21.831</v>
       </c>
     </row>
     <row r="9" spans="1:27" x14ac:dyDescent="0.45">
       <c r="A9" s="1">
-        <v>41182</v>
+        <v>37529</v>
       </c>
       <c r="B9" t="s">
         <v>34</v>
       </c>
       <c r="C9">
-        <v>109.32</v>
+        <v>19.117000000000001</v>
       </c>
       <c r="D9">
-        <v>802.577</v>
+        <v>238.08600000000001</v>
       </c>
       <c r="E9">
-        <v>411.03300000000002</v>
+        <v>121.80200000000001</v>
       </c>
       <c r="F9">
-        <v>414.375</v>
+        <v>117.069</v>
       </c>
       <c r="G9">
-        <v>1422.89</v>
+        <v>381.90499999999997</v>
       </c>
       <c r="H9">
-        <v>1919.711</v>
+        <v>539.64400000000001</v>
       </c>
       <c r="I9">
-        <v>84.882000000000005</v>
+        <v>26.422000000000001</v>
       </c>
       <c r="J9">
         <v>0</v>
@@ -1353,75 +1473,75 @@
         <v>0</v>
       </c>
       <c r="N9">
-        <v>216.01599999999999</v>
+        <v>50.307000000000002</v>
       </c>
       <c r="O9">
-        <v>255.333</v>
+        <v>60.101999999999997</v>
       </c>
       <c r="P9">
         <v>0</v>
       </c>
       <c r="Q9">
-        <v>9.6869999999999994</v>
+        <v>-21.207999999999998</v>
       </c>
       <c r="R9">
-        <v>41182</v>
+        <v>37529</v>
       </c>
       <c r="S9">
-        <v>13549</v>
+        <v>0</v>
       </c>
       <c r="T9">
-        <v>1664.3779999999999</v>
+        <v>479.54199999999997</v>
       </c>
       <c r="U9">
-        <v>195.60300000000001</v>
+        <v>25.484999999999999</v>
       </c>
       <c r="V9">
-        <v>98.665000000000006</v>
+        <v>-2.2069999999999999</v>
       </c>
       <c r="W9">
-        <v>-56.280999999999999</v>
+        <v>0</v>
       </c>
       <c r="X9">
-        <v>-51.843000000000004</v>
+        <v>0</v>
       </c>
       <c r="Y9">
         <v>0</v>
       </c>
       <c r="Z9">
-        <v>-6.2E-2</v>
+        <v>-6.3070000000000004</v>
       </c>
       <c r="AA9">
-        <v>109.32</v>
+        <v>19.117000000000001</v>
       </c>
     </row>
     <row r="10" spans="1:27" x14ac:dyDescent="0.45">
       <c r="A10" s="1">
-        <v>41274</v>
+        <v>37621</v>
       </c>
       <c r="B10" t="s">
         <v>35</v>
       </c>
       <c r="C10">
-        <v>98.715999999999994</v>
+        <v>16.888999999999999</v>
       </c>
       <c r="D10">
-        <v>757.23500000000001</v>
+        <v>219.286</v>
       </c>
       <c r="E10">
-        <v>372.15899999999999</v>
+        <v>105.553</v>
       </c>
       <c r="F10">
-        <v>390.82100000000003</v>
+        <v>109.345</v>
       </c>
       <c r="G10">
-        <v>1286.6559999999999</v>
+        <v>396.48599999999999</v>
       </c>
       <c r="H10">
-        <v>1815.8320000000001</v>
+        <v>559.00800000000004</v>
       </c>
       <c r="I10">
-        <v>78.019000000000005</v>
+        <v>25.783000000000001</v>
       </c>
       <c r="J10">
         <v>0</v>
@@ -1436,75 +1556,75 @@
         <v>0</v>
       </c>
       <c r="N10">
-        <v>204.17400000000001</v>
+        <v>47.064</v>
       </c>
       <c r="O10">
-        <v>255.47200000000001</v>
+        <v>59.137</v>
       </c>
       <c r="P10">
         <v>0</v>
       </c>
       <c r="Q10">
-        <v>-115.992</v>
+        <v>-11.189</v>
       </c>
       <c r="R10">
-        <v>41274</v>
+        <v>37621</v>
       </c>
       <c r="S10">
-        <v>15145</v>
+        <v>7108</v>
       </c>
       <c r="T10">
-        <v>1560.36</v>
+        <v>499.87099999999998</v>
       </c>
       <c r="U10">
-        <v>79.611000000000004</v>
+        <v>14.295999999999999</v>
       </c>
       <c r="V10">
-        <v>107.196</v>
+        <v>-10.452999999999999</v>
       </c>
       <c r="W10">
-        <v>-62.388739999999999</v>
+        <v>0</v>
       </c>
       <c r="X10">
-        <v>-203.44499999999999</v>
+        <v>0</v>
       </c>
       <c r="Y10">
         <v>0</v>
       </c>
       <c r="Z10">
-        <v>26.873999999999999</v>
+        <v>-2.8370000000000002</v>
       </c>
       <c r="AA10">
-        <v>98.715999999999994</v>
+        <v>16.888999999999999</v>
       </c>
     </row>
     <row r="11" spans="1:27" x14ac:dyDescent="0.45">
       <c r="A11" s="1">
-        <v>41364</v>
+        <v>37711</v>
       </c>
       <c r="B11" t="s">
         <v>36</v>
       </c>
       <c r="C11">
-        <v>109.048</v>
+        <v>19.041</v>
       </c>
       <c r="D11">
-        <v>806.32600000000002</v>
+        <v>235.84299999999999</v>
       </c>
       <c r="E11">
-        <v>418.733</v>
+        <v>120.042</v>
       </c>
       <c r="F11">
-        <v>421.88</v>
+        <v>116.697</v>
       </c>
       <c r="G11">
-        <v>1376.836</v>
+        <v>418.85700000000003</v>
       </c>
       <c r="H11">
-        <v>1945.296</v>
+        <v>587.74</v>
       </c>
       <c r="I11">
-        <v>75.326999999999998</v>
+        <v>23.678999999999998</v>
       </c>
       <c r="J11">
         <v>0</v>
@@ -1513,81 +1633,81 @@
         <v>0</v>
       </c>
       <c r="L11">
-        <v>-20</v>
+        <v>0</v>
       </c>
       <c r="M11">
         <v>0</v>
       </c>
       <c r="N11">
-        <v>253.09700000000001</v>
+        <v>59.026000000000003</v>
       </c>
       <c r="O11">
-        <v>304.43299999999999</v>
+        <v>71.099000000000004</v>
       </c>
       <c r="P11">
         <v>0</v>
       </c>
       <c r="Q11">
-        <v>79.629000000000005</v>
+        <v>4.5049999999999999</v>
       </c>
       <c r="R11">
-        <v>41364</v>
+        <v>37711</v>
       </c>
       <c r="S11">
-        <v>13212</v>
+        <v>0</v>
       </c>
       <c r="T11">
-        <v>1640.8630000000001</v>
+        <v>516.64099999999996</v>
       </c>
       <c r="U11">
-        <v>159.24</v>
+        <v>18.800999999999998</v>
       </c>
       <c r="V11">
-        <v>160.244</v>
+        <v>8.9640000000000004</v>
       </c>
       <c r="W11">
-        <v>-29.661999999999999</v>
+        <v>-4.5529999999999999</v>
       </c>
       <c r="X11">
-        <v>-25.887</v>
+        <v>-4.5529999999999999</v>
       </c>
       <c r="Y11">
         <v>0</v>
       </c>
       <c r="Z11">
-        <v>-6.3E-2</v>
+        <v>14.518000000000001</v>
       </c>
       <c r="AA11">
-        <v>109.048</v>
+        <v>19.041</v>
       </c>
     </row>
     <row r="12" spans="1:27" x14ac:dyDescent="0.45">
       <c r="A12" s="1">
-        <v>41455</v>
+        <v>37802</v>
       </c>
       <c r="B12" t="s">
         <v>37</v>
       </c>
       <c r="C12">
-        <v>121.009</v>
+        <v>21.927</v>
       </c>
       <c r="D12">
-        <v>847.596</v>
+        <v>249.11199999999999</v>
       </c>
       <c r="E12">
-        <v>436.452</v>
+        <v>127.39700000000001</v>
       </c>
       <c r="F12">
-        <v>442.721</v>
+        <v>123.374</v>
       </c>
       <c r="G12">
-        <v>1405.318</v>
+        <v>436.89600000000002</v>
       </c>
       <c r="H12">
-        <v>1993.443</v>
+        <v>611.73599999999999</v>
       </c>
       <c r="I12">
-        <v>89.753</v>
+        <v>24.033000000000001</v>
       </c>
       <c r="J12">
         <v>0</v>
@@ -1602,75 +1722,75 @@
         <v>0</v>
       </c>
       <c r="N12">
-        <v>236.14</v>
+        <v>58.293999999999997</v>
       </c>
       <c r="O12">
-        <v>287.39100000000002</v>
+        <v>70.367000000000004</v>
       </c>
       <c r="P12">
         <v>0</v>
       </c>
       <c r="Q12">
-        <v>-36.387</v>
+        <v>18.039000000000001</v>
       </c>
       <c r="R12">
-        <v>41455</v>
+        <v>37802</v>
       </c>
       <c r="S12">
-        <v>13413</v>
+        <v>0</v>
       </c>
       <c r="T12">
-        <v>1706.0519999999999</v>
+        <v>541.36900000000003</v>
       </c>
       <c r="U12">
-        <v>122.85299999999999</v>
+        <v>36.840000000000003</v>
       </c>
       <c r="V12">
-        <v>53.621000000000002</v>
+        <v>26.06</v>
       </c>
       <c r="W12">
-        <v>-59.338000000000001</v>
+        <v>0</v>
       </c>
       <c r="X12">
-        <v>-53.902000000000001</v>
+        <v>0</v>
       </c>
       <c r="Y12">
         <v>0</v>
       </c>
       <c r="Z12">
-        <v>-0.02</v>
+        <v>-0.13800000000000001</v>
       </c>
       <c r="AA12">
-        <v>121.009</v>
+        <v>21.927</v>
       </c>
     </row>
     <row r="13" spans="1:27" x14ac:dyDescent="0.45">
       <c r="A13" s="1">
-        <v>41547</v>
+        <v>37894</v>
       </c>
       <c r="B13" t="s">
         <v>38</v>
       </c>
       <c r="C13">
-        <v>119.35</v>
+        <v>23.262</v>
       </c>
       <c r="D13">
-        <v>858.42399999999998</v>
+        <v>258.33</v>
       </c>
       <c r="E13">
-        <v>453.65199999999999</v>
+        <v>137.864</v>
       </c>
       <c r="F13">
-        <v>443.39499999999998</v>
+        <v>126.50700000000001</v>
       </c>
       <c r="G13">
-        <v>1436.83</v>
+        <v>459.32799999999997</v>
       </c>
       <c r="H13">
-        <v>2060.4189999999999</v>
+        <v>635.774</v>
       </c>
       <c r="I13">
-        <v>105.131</v>
+        <v>29.631</v>
       </c>
       <c r="J13">
         <v>0</v>
@@ -1685,75 +1805,75 @@
         <v>0</v>
       </c>
       <c r="N13">
-        <v>259.572</v>
+        <v>58.969000000000001</v>
       </c>
       <c r="O13">
-        <v>310.78399999999999</v>
+        <v>71.042000000000002</v>
       </c>
       <c r="P13">
         <v>0</v>
       </c>
       <c r="Q13">
-        <v>-30.663</v>
+        <v>18.286999999999999</v>
       </c>
       <c r="R13">
-        <v>41547</v>
+        <v>37894</v>
       </c>
       <c r="S13">
-        <v>13963</v>
+        <v>0</v>
       </c>
       <c r="T13">
-        <v>1749.635</v>
+        <v>564.73199999999997</v>
       </c>
       <c r="U13">
-        <v>92.19</v>
+        <v>55.127000000000002</v>
       </c>
       <c r="V13">
-        <v>101.408</v>
+        <v>26.859000000000002</v>
       </c>
       <c r="W13">
-        <v>-74.218999999999994</v>
+        <v>0</v>
       </c>
       <c r="X13">
-        <v>-80.789000000000001</v>
+        <v>0</v>
       </c>
       <c r="Y13">
         <v>0</v>
       </c>
       <c r="Z13">
-        <v>-4.0000000000000001E-3</v>
+        <v>-0.16500000000000001</v>
       </c>
       <c r="AA13">
-        <v>119.35</v>
+        <v>23.262</v>
       </c>
     </row>
     <row r="14" spans="1:27" x14ac:dyDescent="0.45">
       <c r="A14" s="1">
-        <v>41639</v>
+        <v>37986</v>
       </c>
       <c r="B14" t="s">
         <v>39</v>
       </c>
       <c r="C14">
-        <v>99.228999999999999</v>
+        <v>19.89</v>
       </c>
       <c r="D14">
-        <v>813.76</v>
+        <v>251.643</v>
       </c>
       <c r="E14">
-        <v>414.33100000000002</v>
+        <v>128.756</v>
       </c>
       <c r="F14">
-        <v>411.44900000000001</v>
+        <v>122.489</v>
       </c>
       <c r="G14">
-        <v>1408.461</v>
+        <v>454.19600000000003</v>
       </c>
       <c r="H14">
-        <v>2075.7840000000001</v>
+        <v>651.54300000000001</v>
       </c>
       <c r="I14">
-        <v>91.253</v>
+        <v>40.124000000000002</v>
       </c>
       <c r="J14">
         <v>0</v>
@@ -1768,75 +1888,75 @@
         <v>0</v>
       </c>
       <c r="N14">
-        <v>239.83199999999999</v>
+        <v>60.941000000000003</v>
       </c>
       <c r="O14">
-        <v>303.08699999999999</v>
+        <v>74.802999999999997</v>
       </c>
       <c r="P14">
         <v>0</v>
       </c>
       <c r="Q14">
-        <v>-33.683999999999997</v>
+        <v>-5.3769999999999998</v>
       </c>
       <c r="R14">
-        <v>41639</v>
+        <v>37986</v>
       </c>
       <c r="S14">
-        <v>17277</v>
+        <v>6851</v>
       </c>
       <c r="T14">
-        <v>1772.6969999999999</v>
+        <v>576.74</v>
       </c>
       <c r="U14">
-        <v>58.506</v>
+        <v>49.75</v>
       </c>
       <c r="V14">
-        <v>100.84699999999999</v>
+        <v>28.74</v>
       </c>
       <c r="W14">
-        <v>-74.236999999999995</v>
+        <v>-11.382</v>
       </c>
       <c r="X14">
-        <v>-73.864999999999995</v>
+        <v>-11.382</v>
       </c>
       <c r="Y14">
         <v>0</v>
       </c>
       <c r="Z14">
-        <v>-0.01</v>
+        <v>-7.68</v>
       </c>
       <c r="AA14">
-        <v>99.228999999999999</v>
+        <v>19.89</v>
       </c>
     </row>
     <row r="15" spans="1:27" x14ac:dyDescent="0.45">
       <c r="A15" s="1">
-        <v>41729</v>
+        <v>38077</v>
       </c>
       <c r="B15" t="s">
         <v>40</v>
       </c>
       <c r="C15">
-        <v>111.931</v>
+        <v>28.146999999999998</v>
       </c>
       <c r="D15">
-        <v>876.50099999999998</v>
+        <v>284.20600000000002</v>
       </c>
       <c r="E15">
-        <v>473.18099999999998</v>
+        <v>151.19200000000001</v>
       </c>
       <c r="F15">
-        <v>448.47800000000001</v>
+        <v>142.97900000000001</v>
       </c>
       <c r="G15">
-        <v>1475.492</v>
+        <v>486.67899999999997</v>
       </c>
       <c r="H15">
-        <v>2165.1060000000002</v>
+        <v>690.22699999999998</v>
       </c>
       <c r="I15">
-        <v>105.697</v>
+        <v>42.878</v>
       </c>
       <c r="J15">
         <v>0</v>
@@ -1845,87 +1965,87 @@
         <v>0</v>
       </c>
       <c r="L15">
-        <v>-140</v>
+        <v>0</v>
       </c>
       <c r="M15">
         <v>0</v>
       </c>
       <c r="N15">
-        <v>301.52600000000001</v>
+        <v>83.358000000000004</v>
       </c>
       <c r="O15">
-        <v>364.78199999999998</v>
+        <v>97.22</v>
       </c>
       <c r="P15">
         <v>0</v>
       </c>
       <c r="Q15">
-        <v>30.515000000000001</v>
+        <v>3.3380000000000001</v>
       </c>
       <c r="R15">
-        <v>41729</v>
+        <v>38077</v>
       </c>
       <c r="S15">
-        <v>15040</v>
+        <v>0</v>
       </c>
       <c r="T15">
-        <v>1800.3240000000001</v>
+        <v>593.00699999999995</v>
       </c>
       <c r="U15">
-        <v>89.021000000000001</v>
+        <v>53.088000000000001</v>
       </c>
       <c r="V15">
-        <v>143.298</v>
+        <v>28.349</v>
       </c>
       <c r="W15">
-        <v>-74.192999999999998</v>
+        <v>-11.382</v>
       </c>
       <c r="X15">
-        <v>-80.849000000000004</v>
+        <v>-11.382</v>
       </c>
       <c r="Y15">
         <v>0</v>
       </c>
       <c r="Z15">
-        <v>-2E-3</v>
+        <v>-5.3150000000000004</v>
       </c>
       <c r="AA15">
-        <v>111.931</v>
+        <v>28.146999999999998</v>
       </c>
     </row>
     <row r="16" spans="1:27" x14ac:dyDescent="0.45">
       <c r="A16" s="1">
-        <v>41820</v>
+        <v>38168</v>
       </c>
       <c r="B16" t="s">
         <v>41</v>
       </c>
       <c r="C16">
-        <v>130.51400000000001</v>
+        <v>34.832000000000001</v>
       </c>
       <c r="D16">
-        <v>949.93799999999999</v>
+        <v>310.14299999999997</v>
       </c>
       <c r="E16">
-        <v>502.33</v>
+        <v>163.946</v>
       </c>
       <c r="F16">
-        <v>482.66699999999997</v>
+        <v>157.20699999999999</v>
       </c>
       <c r="G16">
-        <v>1555.7819999999999</v>
+        <v>509.30399999999997</v>
       </c>
       <c r="H16">
-        <v>2282.973</v>
+        <v>727.77800000000002</v>
       </c>
       <c r="I16">
-        <v>109.488</v>
+        <v>48.261000000000003</v>
       </c>
       <c r="J16">
         <v>0</v>
       </c>
       <c r="K16">
-        <v>70</v>
+        <v>0</v>
       </c>
       <c r="L16">
         <v>0</v>
@@ -1934,81 +2054,81 @@
         <v>0</v>
       </c>
       <c r="N16">
-        <v>351.46300000000002</v>
+        <v>87.475999999999999</v>
       </c>
       <c r="O16">
-        <v>414.84899999999999</v>
+        <v>101.33799999999999</v>
       </c>
       <c r="P16">
-        <v>70</v>
+        <v>0</v>
       </c>
       <c r="Q16">
-        <v>16.919</v>
+        <v>-10.387</v>
       </c>
       <c r="R16">
-        <v>41820</v>
+        <v>38168</v>
       </c>
       <c r="S16">
-        <v>15427</v>
+        <v>0</v>
       </c>
       <c r="T16">
-        <v>1868.124</v>
+        <v>626.44000000000005</v>
       </c>
       <c r="U16">
-        <v>105.94</v>
+        <v>42.701000000000001</v>
       </c>
       <c r="V16">
-        <v>79.631</v>
+        <v>7.49</v>
       </c>
       <c r="W16">
-        <v>-74.16</v>
+        <v>0</v>
       </c>
       <c r="X16">
-        <v>0.28000000000000003</v>
+        <v>0</v>
       </c>
       <c r="Y16">
         <v>0</v>
       </c>
       <c r="Z16">
-        <v>0</v>
+        <v>-6.1909999999999998</v>
       </c>
       <c r="AA16">
-        <v>130.51400000000001</v>
+        <v>34.832000000000001</v>
       </c>
     </row>
     <row r="17" spans="1:27" x14ac:dyDescent="0.45">
       <c r="A17" s="1">
-        <v>41912</v>
+        <v>38260</v>
       </c>
       <c r="B17" t="s">
         <v>42</v>
       </c>
       <c r="C17">
-        <v>133.31399999999999</v>
+        <v>34.741</v>
       </c>
       <c r="D17">
-        <v>980.81399999999996</v>
+        <v>325.678</v>
       </c>
       <c r="E17">
-        <v>522.26499999999999</v>
+        <v>170.26499999999999</v>
       </c>
       <c r="F17">
-        <v>498.69299999999998</v>
+        <v>163.56</v>
       </c>
       <c r="G17">
-        <v>1619.405</v>
+        <v>520.01700000000005</v>
       </c>
       <c r="H17">
-        <v>2372.9949999999999</v>
+        <v>745.15300000000002</v>
       </c>
       <c r="I17">
-        <v>112.57899999999999</v>
+        <v>47.241999999999997</v>
       </c>
       <c r="J17">
         <v>0</v>
       </c>
       <c r="K17">
-        <v>105</v>
+        <v>0</v>
       </c>
       <c r="L17">
         <v>0</v>
@@ -2017,81 +2137,81 @@
         <v>0</v>
       </c>
       <c r="N17">
-        <v>407.90300000000002</v>
+        <v>86.247</v>
       </c>
       <c r="O17">
-        <v>471.42200000000003</v>
+        <v>100.10899999999999</v>
       </c>
       <c r="P17">
-        <v>105</v>
+        <v>0</v>
       </c>
       <c r="Q17">
-        <v>10.388999999999999</v>
+        <v>-16.669</v>
       </c>
       <c r="R17">
-        <v>41912</v>
+        <v>38260</v>
       </c>
       <c r="S17">
-        <v>15866</v>
+        <v>0</v>
       </c>
       <c r="T17">
-        <v>1901.5730000000001</v>
+        <v>645.04399999999998</v>
       </c>
       <c r="U17">
-        <v>116.32899999999999</v>
+        <v>26.032</v>
       </c>
       <c r="V17">
-        <v>110.01300000000001</v>
+        <v>2.8849999999999998</v>
       </c>
       <c r="W17">
-        <v>-74.192999999999998</v>
+        <v>-18.969000000000001</v>
       </c>
       <c r="X17">
-        <v>-54.713000000000001</v>
+        <v>-18.969000000000001</v>
       </c>
       <c r="Y17">
         <v>0</v>
       </c>
       <c r="Z17">
-        <v>0.45300000000000001</v>
+        <v>13.571</v>
       </c>
       <c r="AA17">
-        <v>133.31399999999999</v>
+        <v>34.741</v>
       </c>
     </row>
     <row r="18" spans="1:27" x14ac:dyDescent="0.45">
       <c r="A18" s="1">
-        <v>42004</v>
+        <v>38352</v>
       </c>
       <c r="B18" t="s">
         <v>43</v>
       </c>
       <c r="C18">
-        <v>118.39100000000001</v>
+        <v>33.268999999999998</v>
       </c>
       <c r="D18">
-        <v>926.25400000000002</v>
+        <v>318.46499999999997</v>
       </c>
       <c r="E18">
-        <v>462.077</v>
+        <v>162.5</v>
       </c>
       <c r="F18">
-        <v>467.56400000000002</v>
+        <v>152.13999999999999</v>
       </c>
       <c r="G18">
-        <v>1583.2650000000001</v>
+        <v>543.19399999999996</v>
       </c>
       <c r="H18">
-        <v>2359.1019999999999</v>
+        <v>775.36199999999997</v>
       </c>
       <c r="I18">
-        <v>103.90900000000001</v>
+        <v>39.276000000000003</v>
       </c>
       <c r="J18">
         <v>0</v>
       </c>
       <c r="K18">
-        <v>90</v>
+        <v>0</v>
       </c>
       <c r="L18">
         <v>0</v>
@@ -2100,161 +2220,161 @@
         <v>0</v>
       </c>
       <c r="N18">
-        <v>375.35300000000001</v>
+        <v>76.311000000000007</v>
       </c>
       <c r="O18">
-        <v>443.88499999999999</v>
+        <v>90.992999999999995</v>
       </c>
       <c r="P18">
-        <v>90</v>
+        <v>0</v>
       </c>
       <c r="Q18">
-        <v>-1.833</v>
+        <v>7.4710000000000001</v>
       </c>
       <c r="R18">
-        <v>42004</v>
+        <v>38352</v>
       </c>
       <c r="S18">
-        <v>18417</v>
+        <v>7946</v>
       </c>
       <c r="T18">
-        <v>1915.2170000000001</v>
+        <v>684.36900000000003</v>
       </c>
       <c r="U18">
-        <v>114.496</v>
+        <v>33.503</v>
       </c>
       <c r="V18">
-        <v>166.45</v>
+        <v>18.713000000000001</v>
       </c>
       <c r="W18">
-        <v>-74.034999999999997</v>
+        <v>0</v>
       </c>
       <c r="X18">
-        <v>-114.45</v>
+        <v>1E-3</v>
       </c>
       <c r="Y18">
         <v>0</v>
       </c>
       <c r="Z18">
-        <v>0</v>
+        <v>2.8380000000000001</v>
       </c>
       <c r="AA18">
-        <v>118.39100000000001</v>
+        <v>33.268999999999998</v>
       </c>
     </row>
     <row r="19" spans="1:27" x14ac:dyDescent="0.45">
       <c r="A19" s="1">
-        <v>42094</v>
+        <v>38442</v>
       </c>
       <c r="B19" t="s">
         <v>44</v>
       </c>
       <c r="C19">
-        <v>127.60599999999999</v>
+        <v>37.030999999999999</v>
       </c>
       <c r="D19">
-        <v>953.31700000000001</v>
+        <v>353.80900000000003</v>
       </c>
       <c r="E19">
-        <v>521.09400000000005</v>
+        <v>183.43100000000001</v>
       </c>
       <c r="F19">
-        <v>484.05</v>
+        <v>174.762</v>
       </c>
       <c r="G19">
-        <v>1628.9469999999999</v>
+        <v>589.09699999999998</v>
       </c>
       <c r="H19">
-        <v>2423.9369999999999</v>
+        <v>808.41600000000005</v>
       </c>
       <c r="I19">
-        <v>132.23400000000001</v>
+        <v>43.110999999999997</v>
       </c>
       <c r="J19">
         <v>0</v>
       </c>
       <c r="K19">
-        <v>125</v>
+        <v>0</v>
       </c>
       <c r="L19">
         <v>0</v>
       </c>
       <c r="M19">
-        <v>-140</v>
+        <v>0</v>
       </c>
       <c r="N19">
-        <v>492.363</v>
+        <v>97.293999999999997</v>
       </c>
       <c r="O19">
-        <v>561.12400000000002</v>
+        <v>111.976</v>
       </c>
       <c r="P19">
-        <v>125</v>
+        <v>0</v>
       </c>
       <c r="Q19">
-        <v>6.2939999999999996</v>
+        <v>32.491999999999997</v>
       </c>
       <c r="R19">
-        <v>42094</v>
+        <v>38442</v>
       </c>
       <c r="S19">
         <v>0</v>
       </c>
       <c r="T19">
-        <v>1862.8130000000001</v>
+        <v>696.44</v>
       </c>
       <c r="U19">
-        <v>120.79</v>
+        <v>65.995000000000005</v>
       </c>
       <c r="V19">
-        <v>180.10499999999999</v>
+        <v>47.094999999999999</v>
       </c>
       <c r="W19">
-        <v>-82.846000000000004</v>
+        <v>-23.521999999999998</v>
       </c>
       <c r="X19">
-        <v>-127.18</v>
+        <v>-23.521999999999998</v>
       </c>
       <c r="Y19">
         <v>0</v>
       </c>
       <c r="Z19">
-        <v>0</v>
+        <v>19.747</v>
       </c>
       <c r="AA19">
-        <v>127.60599999999999</v>
+        <v>37.030999999999999</v>
       </c>
     </row>
     <row r="20" spans="1:27" x14ac:dyDescent="0.45">
       <c r="A20" s="1">
-        <v>42185</v>
+        <v>38533</v>
       </c>
       <c r="B20" t="s">
         <v>45</v>
       </c>
       <c r="C20">
-        <v>140.357</v>
+        <v>44.648000000000003</v>
       </c>
       <c r="D20">
-        <v>997.827</v>
+        <v>383.26299999999998</v>
       </c>
       <c r="E20">
-        <v>537.65</v>
+        <v>195.124</v>
       </c>
       <c r="F20">
-        <v>502.08699999999999</v>
+        <v>190.792</v>
       </c>
       <c r="G20">
-        <v>1663.373</v>
+        <v>594.47400000000005</v>
       </c>
       <c r="H20">
-        <v>2480.9319999999998</v>
+        <v>820.36800000000005</v>
       </c>
       <c r="I20">
-        <v>133.47200000000001</v>
+        <v>43.552999999999997</v>
       </c>
       <c r="J20">
-        <v>250.42500000000001</v>
+        <v>0</v>
       </c>
       <c r="K20">
         <v>0</v>
@@ -2266,78 +2386,78 @@
         <v>0</v>
       </c>
       <c r="N20">
-        <v>396.57600000000002</v>
+        <v>84.983000000000004</v>
       </c>
       <c r="O20">
-        <v>716.94799999999998</v>
+        <v>99.665000000000006</v>
       </c>
       <c r="P20">
-        <v>330</v>
+        <v>0</v>
       </c>
       <c r="Q20">
-        <v>0.376</v>
+        <v>-26.35</v>
       </c>
       <c r="R20">
-        <v>42185</v>
+        <v>38533</v>
       </c>
       <c r="S20">
-        <v>19527</v>
+        <v>0</v>
       </c>
       <c r="T20">
-        <v>1763.9839999999999</v>
+        <v>720.70299999999997</v>
       </c>
       <c r="U20">
-        <v>121.166</v>
+        <v>39.645000000000003</v>
       </c>
       <c r="V20">
-        <v>81.049000000000007</v>
+        <v>6.4089999999999998</v>
       </c>
       <c r="W20">
-        <v>-81.89</v>
+        <v>0</v>
       </c>
       <c r="X20">
-        <v>-39.795999999999999</v>
+        <v>-18.739000000000001</v>
       </c>
       <c r="Y20">
         <v>0</v>
       </c>
       <c r="Z20">
-        <v>0</v>
+        <v>0.69899999999999995</v>
       </c>
       <c r="AA20">
-        <v>140.357</v>
+        <v>44.646999999999998</v>
       </c>
     </row>
     <row r="21" spans="1:27" x14ac:dyDescent="0.45">
       <c r="A21" s="1">
-        <v>42277</v>
+        <v>38625</v>
       </c>
       <c r="B21" t="s">
         <v>46</v>
       </c>
       <c r="C21">
-        <v>136.494</v>
+        <v>45.970999999999997</v>
       </c>
       <c r="D21">
-        <v>995.25</v>
+        <v>402.21800000000002</v>
       </c>
       <c r="E21">
-        <v>537.05499999999995</v>
+        <v>204.34</v>
       </c>
       <c r="F21">
-        <v>502.22500000000002</v>
+        <v>199.12299999999999</v>
       </c>
       <c r="G21">
-        <v>1672.99</v>
+        <v>621.38900000000001</v>
       </c>
       <c r="H21">
-        <v>2495.277</v>
+        <v>848.19399999999996</v>
       </c>
       <c r="I21">
-        <v>131.97900000000001</v>
+        <v>40.98</v>
       </c>
       <c r="J21">
-        <v>273.49</v>
+        <v>0</v>
       </c>
       <c r="K21">
         <v>0</v>
@@ -2349,78 +2469,78 @@
         <v>0</v>
       </c>
       <c r="N21">
-        <v>368.28</v>
+        <v>85.212000000000003</v>
       </c>
       <c r="O21">
-        <v>711.78599999999994</v>
+        <v>99.894000000000005</v>
       </c>
       <c r="P21">
-        <v>315</v>
+        <v>0</v>
       </c>
       <c r="Q21">
-        <v>-9.391</v>
+        <v>-7.6159999999999997</v>
       </c>
       <c r="R21">
-        <v>42277</v>
+        <v>38625</v>
       </c>
       <c r="S21">
-        <v>19979</v>
+        <v>0</v>
       </c>
       <c r="T21">
-        <v>1783.491</v>
+        <v>748.3</v>
       </c>
       <c r="U21">
-        <v>111.77500000000001</v>
+        <v>32.029000000000003</v>
       </c>
       <c r="V21">
-        <v>140.83099999999999</v>
+        <v>22.073</v>
       </c>
       <c r="W21">
-        <v>-81.247</v>
+        <v>-23.413</v>
       </c>
       <c r="X21">
-        <v>-116.452</v>
+        <v>-23.413</v>
       </c>
       <c r="Y21">
         <v>0</v>
       </c>
       <c r="Z21">
-        <v>0</v>
+        <v>6.73</v>
       </c>
       <c r="AA21">
-        <v>136.494</v>
+        <v>45.970999999999997</v>
       </c>
     </row>
     <row r="22" spans="1:27" x14ac:dyDescent="0.45">
       <c r="A22" s="1">
-        <v>42369</v>
+        <v>38717</v>
       </c>
       <c r="B22" t="s">
         <v>47</v>
       </c>
       <c r="C22">
-        <v>111.904</v>
+        <v>39.164000000000001</v>
       </c>
       <c r="D22">
-        <v>922.79300000000001</v>
+        <v>384.04300000000001</v>
       </c>
       <c r="E22">
-        <v>468.375</v>
+        <v>183.55600000000001</v>
       </c>
       <c r="F22">
-        <v>460.572</v>
+        <v>193.42500000000001</v>
       </c>
       <c r="G22">
-        <v>1664.7760000000001</v>
+        <v>649.00800000000004</v>
       </c>
       <c r="H22">
-        <v>2532.462</v>
+        <v>890.03499999999997</v>
       </c>
       <c r="I22">
-        <v>125.973</v>
+        <v>38.572000000000003</v>
       </c>
       <c r="J22">
-        <v>302.95</v>
+        <v>0</v>
       </c>
       <c r="K22">
         <v>0</v>
@@ -2432,78 +2552,78 @@
         <v>0</v>
       </c>
       <c r="N22">
-        <v>373.166</v>
+        <v>91.537999999999997</v>
       </c>
       <c r="O22">
-        <v>731.173</v>
+        <v>106.486</v>
       </c>
       <c r="P22">
-        <v>365</v>
+        <v>0</v>
       </c>
       <c r="Q22">
-        <v>17.244</v>
+        <v>24.175000000000001</v>
       </c>
       <c r="R22">
-        <v>42369</v>
+        <v>38717</v>
       </c>
       <c r="S22">
-        <v>20746</v>
+        <v>9306</v>
       </c>
       <c r="T22">
-        <v>1801.289</v>
+        <v>783.54899999999998</v>
       </c>
       <c r="U22">
-        <v>129.01900000000001</v>
+        <v>56.204000000000001</v>
       </c>
       <c r="V22">
-        <v>144.95500000000001</v>
+        <v>46.335000000000001</v>
       </c>
       <c r="W22">
-        <v>-81.117999999999995</v>
+        <v>0</v>
       </c>
       <c r="X22">
-        <v>-54.134999999999998</v>
+        <v>0</v>
       </c>
       <c r="Y22">
         <v>0</v>
       </c>
       <c r="Z22">
-        <v>0</v>
+        <v>-0.109</v>
       </c>
       <c r="AA22">
-        <v>111.904</v>
+        <v>39.164000000000001</v>
       </c>
     </row>
     <row r="23" spans="1:27" x14ac:dyDescent="0.45">
       <c r="A23" s="1">
-        <v>42460</v>
+        <v>38807</v>
       </c>
       <c r="B23" t="s">
         <v>48</v>
       </c>
       <c r="C23">
-        <v>126.2</v>
+        <v>47.853999999999999</v>
       </c>
       <c r="D23">
-        <v>986.7</v>
+        <v>431.70299999999997</v>
       </c>
       <c r="E23">
-        <v>533.48500000000001</v>
+        <v>212.517</v>
       </c>
       <c r="F23">
-        <v>491.5</v>
+        <v>217.48699999999999</v>
       </c>
       <c r="G23">
-        <v>1767.18</v>
+        <v>700.17</v>
       </c>
       <c r="H23">
-        <v>2642.7809999999999</v>
+        <v>953.37199999999996</v>
       </c>
       <c r="I23">
-        <v>158.49600000000001</v>
+        <v>54.844999999999999</v>
       </c>
       <c r="J23">
-        <v>362.39</v>
+        <v>0</v>
       </c>
       <c r="K23">
         <v>0</v>
@@ -2512,81 +2632,81 @@
         <v>0</v>
       </c>
       <c r="M23">
-        <v>-175</v>
+        <v>0</v>
       </c>
       <c r="N23">
-        <v>401.673</v>
+        <v>135.91900000000001</v>
       </c>
       <c r="O23">
-        <v>820.90499999999997</v>
+        <v>152.00399999999999</v>
       </c>
       <c r="P23">
-        <v>370</v>
+        <v>0</v>
       </c>
       <c r="Q23">
-        <v>21.6</v>
+        <v>12.914</v>
       </c>
       <c r="R23">
-        <v>42460</v>
+        <v>38807</v>
       </c>
       <c r="S23">
-        <v>20509</v>
+        <v>0</v>
       </c>
       <c r="T23">
-        <v>1821.876</v>
+        <v>801.36800000000005</v>
       </c>
       <c r="U23">
-        <v>150.55199999999999</v>
+        <v>69.117999999999995</v>
       </c>
       <c r="V23">
-        <v>166.5</v>
+        <v>63.460999999999999</v>
       </c>
       <c r="W23">
-        <v>-86.5</v>
+        <v>-30.210999999999999</v>
       </c>
       <c r="X23">
-        <v>-120.5</v>
+        <v>-30.210999999999999</v>
       </c>
       <c r="Y23">
         <v>0</v>
       </c>
       <c r="Z23">
-        <v>0</v>
+        <v>-4.7E-2</v>
       </c>
       <c r="AA23">
-        <v>126.2</v>
+        <v>47.853999999999999</v>
       </c>
     </row>
     <row r="24" spans="1:27" x14ac:dyDescent="0.45">
       <c r="A24" s="1">
-        <v>42551</v>
+        <v>38898</v>
       </c>
       <c r="B24" t="s">
         <v>49</v>
       </c>
       <c r="C24">
-        <v>131.5</v>
+        <v>51.512999999999998</v>
       </c>
       <c r="D24">
-        <v>1014.3</v>
+        <v>458.81700000000001</v>
       </c>
       <c r="E24">
-        <v>537.34100000000001</v>
+        <v>228.06100000000001</v>
       </c>
       <c r="F24">
-        <v>501.6</v>
+        <v>229.005</v>
       </c>
       <c r="G24">
-        <v>1790.9059999999999</v>
+        <v>723.99900000000002</v>
       </c>
       <c r="H24">
-        <v>2699.136</v>
+        <v>980.53300000000002</v>
       </c>
       <c r="I24">
-        <v>158.69800000000001</v>
+        <v>55.768999999999998</v>
       </c>
       <c r="J24">
-        <v>362.39</v>
+        <v>0</v>
       </c>
       <c r="K24">
         <v>0</v>
@@ -2598,78 +2718,78 @@
         <v>0</v>
       </c>
       <c r="N24">
-        <v>411.18200000000002</v>
+        <v>113.25</v>
       </c>
       <c r="O24">
-        <v>830.97400000000005</v>
+        <v>130.279</v>
       </c>
       <c r="P24">
-        <v>430</v>
+        <v>0</v>
       </c>
       <c r="Q24">
-        <v>4.8</v>
+        <v>-26.326000000000001</v>
       </c>
       <c r="R24">
-        <v>42551</v>
+        <v>38898</v>
       </c>
       <c r="S24">
-        <v>20324</v>
+        <v>0</v>
       </c>
       <c r="T24">
-        <v>1868.162</v>
+        <v>850.25400000000002</v>
       </c>
       <c r="U24">
-        <v>155.458</v>
+        <v>42.792000000000002</v>
       </c>
       <c r="V24">
-        <v>87</v>
+        <v>-3.1139999999999999</v>
       </c>
       <c r="W24">
-        <v>-86.7</v>
+        <v>0</v>
       </c>
       <c r="X24">
-        <v>-24.8</v>
+        <v>-5.6669999999999998</v>
       </c>
       <c r="Y24">
         <v>0</v>
       </c>
       <c r="Z24">
-        <v>0</v>
+        <v>-0.18099999999999999</v>
       </c>
       <c r="AA24">
-        <v>131.5</v>
+        <v>51.512999999999998</v>
       </c>
     </row>
     <row r="25" spans="1:27" x14ac:dyDescent="0.45">
       <c r="A25" s="1">
-        <v>42643</v>
+        <v>38990</v>
       </c>
       <c r="B25" t="s">
         <v>50</v>
       </c>
       <c r="C25">
-        <v>126.9</v>
+        <v>54.100999999999999</v>
       </c>
       <c r="D25">
-        <v>1013.1</v>
+        <v>470.08800000000002</v>
       </c>
       <c r="E25">
-        <v>543.74400000000003</v>
+        <v>232.09100000000001</v>
       </c>
       <c r="F25">
-        <v>499.8</v>
+        <v>237.23500000000001</v>
       </c>
       <c r="G25">
-        <v>1777.662</v>
+        <v>724.08900000000006</v>
       </c>
       <c r="H25">
-        <v>2730.4679999999998</v>
+        <v>997.27</v>
       </c>
       <c r="I25">
-        <v>117.765</v>
+        <v>48.514000000000003</v>
       </c>
       <c r="J25">
-        <v>432.39</v>
+        <v>0</v>
       </c>
       <c r="K25">
         <v>0</v>
@@ -2681,78 +2801,78 @@
         <v>0</v>
       </c>
       <c r="N25">
-        <v>331.065</v>
+        <v>107.839</v>
       </c>
       <c r="O25">
-        <v>821.17</v>
+        <v>124.86799999999999</v>
       </c>
       <c r="P25">
-        <v>445</v>
+        <v>0</v>
       </c>
       <c r="Q25">
-        <v>-8.4</v>
+        <v>-35.353999999999999</v>
       </c>
       <c r="R25">
-        <v>42643</v>
+        <v>38990</v>
       </c>
       <c r="S25">
-        <v>19864</v>
+        <v>0</v>
       </c>
       <c r="T25">
-        <v>1909.298</v>
+        <v>872.40200000000004</v>
       </c>
       <c r="U25">
-        <v>146.983</v>
+        <v>7.4379999999999997</v>
       </c>
       <c r="V25">
-        <v>133.4</v>
+        <v>20.893000000000001</v>
       </c>
       <c r="W25">
-        <v>-86.7</v>
+        <v>-30.337</v>
       </c>
       <c r="X25">
-        <v>-69.099999999999994</v>
+        <v>-31.684000000000001</v>
       </c>
       <c r="Y25">
         <v>0</v>
       </c>
       <c r="Z25">
-        <v>0</v>
+        <v>-0.13300000000000001</v>
       </c>
       <c r="AA25">
-        <v>126.9</v>
+        <v>54.100999999999999</v>
       </c>
     </row>
     <row r="26" spans="1:27" x14ac:dyDescent="0.45">
       <c r="A26" s="1">
-        <v>42735</v>
+        <v>39082</v>
       </c>
       <c r="B26" t="s">
         <v>51</v>
       </c>
       <c r="C26">
-        <v>114.8</v>
+        <v>45.57</v>
       </c>
       <c r="D26">
-        <v>947.9</v>
+        <v>448.72899999999998</v>
       </c>
       <c r="E26">
-        <v>499.7</v>
+        <v>209.53200000000001</v>
       </c>
       <c r="F26">
-        <v>471.9</v>
+        <v>223.94800000000001</v>
       </c>
       <c r="G26">
-        <v>1720.8</v>
+        <v>767.77599999999995</v>
       </c>
       <c r="H26">
-        <v>2668.9</v>
+        <v>1039.0160000000001</v>
       </c>
       <c r="I26">
-        <v>108.8</v>
+        <v>41.371000000000002</v>
       </c>
       <c r="J26">
-        <v>379.5</v>
+        <v>0</v>
       </c>
       <c r="K26">
         <v>0</v>
@@ -2764,78 +2884,78 @@
         <v>0</v>
       </c>
       <c r="N26">
-        <v>275.7</v>
+        <v>103.896</v>
       </c>
       <c r="O26">
-        <v>735.8</v>
+        <v>116.923</v>
       </c>
       <c r="P26">
-        <v>390</v>
+        <v>0</v>
       </c>
       <c r="Q26">
-        <v>-34.299999999999997</v>
+        <v>11.907999999999999</v>
       </c>
       <c r="R26">
-        <v>42735</v>
+        <v>39082</v>
       </c>
       <c r="S26">
-        <v>19624</v>
+        <v>10415</v>
       </c>
       <c r="T26">
-        <v>1933.1</v>
+        <v>922.09299999999996</v>
       </c>
       <c r="U26">
-        <v>112.7</v>
+        <v>19.346</v>
       </c>
       <c r="V26">
-        <v>133</v>
+        <v>16.635000000000002</v>
       </c>
       <c r="W26">
-        <v>-86.7</v>
+        <v>0</v>
       </c>
       <c r="X26">
-        <v>-132.4</v>
+        <v>6.8949999999999996</v>
       </c>
       <c r="Y26">
         <v>0</v>
       </c>
       <c r="Z26">
-        <v>0</v>
+        <v>-0.27200000000000002</v>
       </c>
       <c r="AA26">
-        <v>114.8</v>
+        <v>45.57</v>
       </c>
     </row>
     <row r="27" spans="1:27" x14ac:dyDescent="0.45">
       <c r="A27" s="1">
-        <v>42825</v>
+        <v>39172</v>
       </c>
       <c r="B27" t="s">
         <v>52</v>
       </c>
       <c r="C27">
-        <v>134.19999999999999</v>
+        <v>54.033000000000001</v>
       </c>
       <c r="D27">
-        <v>1047.7</v>
+        <v>489.15699999999998</v>
       </c>
       <c r="E27">
-        <v>574.70000000000005</v>
+        <v>238.65700000000001</v>
       </c>
       <c r="F27">
-        <v>518</v>
+        <v>249.51499999999999</v>
       </c>
       <c r="G27">
-        <v>1810.7</v>
+        <v>822.91099999999994</v>
       </c>
       <c r="H27">
-        <v>2786.4</v>
+        <v>1095.1859999999999</v>
       </c>
       <c r="I27">
-        <v>129.69999999999999</v>
+        <v>44.814</v>
       </c>
       <c r="J27">
-        <v>354.1</v>
+        <v>0</v>
       </c>
       <c r="K27">
         <v>0</v>
@@ -2844,81 +2964,81 @@
         <v>0</v>
       </c>
       <c r="M27">
-        <v>-265</v>
+        <v>0</v>
       </c>
       <c r="N27">
-        <v>369.6</v>
+        <v>140.077</v>
       </c>
       <c r="O27">
-        <v>804.7</v>
+        <v>153.10400000000001</v>
       </c>
       <c r="P27">
-        <v>365</v>
+        <v>0</v>
       </c>
       <c r="Q27">
-        <v>21.6</v>
+        <v>40.042000000000002</v>
       </c>
       <c r="R27">
-        <v>42825</v>
+        <v>39172</v>
       </c>
       <c r="S27">
-        <v>19822</v>
+        <v>0</v>
       </c>
       <c r="T27">
-        <v>1981.7</v>
+        <v>942.08199999999999</v>
       </c>
       <c r="U27">
-        <v>134.30000000000001</v>
+        <v>59.387999999999998</v>
       </c>
       <c r="V27">
-        <v>210.4</v>
+        <v>84.454999999999998</v>
       </c>
       <c r="W27">
-        <v>-92.6</v>
+        <v>-31.584</v>
       </c>
       <c r="X27">
-        <v>-114.7</v>
+        <v>-35.018999999999998</v>
       </c>
       <c r="Y27">
         <v>0</v>
       </c>
       <c r="Z27">
-        <v>0</v>
+        <v>1.837</v>
       </c>
       <c r="AA27">
-        <v>134.19999999999999</v>
+        <v>54.033000000000001</v>
       </c>
     </row>
     <row r="28" spans="1:27" x14ac:dyDescent="0.45">
       <c r="A28" s="1">
-        <v>42916</v>
+        <v>39263</v>
       </c>
       <c r="B28" t="s">
         <v>53</v>
       </c>
       <c r="C28">
-        <v>148.9</v>
+        <v>60.256</v>
       </c>
       <c r="D28">
-        <v>1121.5</v>
+        <v>519.70600000000002</v>
       </c>
       <c r="E28">
-        <v>613.5</v>
+        <v>255.101</v>
       </c>
       <c r="F28">
-        <v>558.5</v>
+        <v>261.46899999999999</v>
       </c>
       <c r="G28">
-        <v>1872.9</v>
+        <v>856.74900000000002</v>
       </c>
       <c r="H28">
-        <v>2851.4</v>
+        <v>1129.028</v>
       </c>
       <c r="I28">
-        <v>141.19999999999999</v>
+        <v>57.451999999999998</v>
       </c>
       <c r="J28">
-        <v>436.2</v>
+        <v>0</v>
       </c>
       <c r="K28">
         <v>0</v>
@@ -2930,78 +3050,78 @@
         <v>0</v>
       </c>
       <c r="N28">
-        <v>342.3</v>
+        <v>129.339</v>
       </c>
       <c r="O28">
-        <v>859.9</v>
+        <v>143.34</v>
       </c>
       <c r="P28">
-        <v>445</v>
+        <v>0</v>
       </c>
       <c r="Q28">
-        <v>-19.2</v>
+        <v>-2.0579999999999998</v>
       </c>
       <c r="R28">
-        <v>42916</v>
+        <v>39263</v>
       </c>
       <c r="S28">
-        <v>20174</v>
+        <v>0</v>
       </c>
       <c r="T28">
-        <v>1991.5</v>
+        <v>985.68799999999999</v>
       </c>
       <c r="U28">
-        <v>115.1</v>
+        <v>57.33</v>
       </c>
       <c r="V28">
-        <v>82.9</v>
+        <v>23.318000000000001</v>
       </c>
       <c r="W28">
-        <v>-92.5</v>
+        <v>0</v>
       </c>
       <c r="X28">
-        <v>-68.8</v>
+        <v>-22.411999999999999</v>
       </c>
       <c r="Y28">
         <v>0</v>
       </c>
       <c r="Z28">
-        <v>0</v>
+        <v>6.3579999999999997</v>
       </c>
       <c r="AA28">
-        <v>148.9</v>
+        <v>60.256</v>
       </c>
     </row>
     <row r="29" spans="1:27" x14ac:dyDescent="0.45">
       <c r="A29" s="1">
-        <v>43008</v>
+        <v>39355</v>
       </c>
       <c r="B29" t="s">
         <v>54</v>
       </c>
       <c r="C29">
-        <v>143.1</v>
+        <v>62.142000000000003</v>
       </c>
       <c r="D29">
-        <v>1132.8</v>
+        <v>533.75</v>
       </c>
       <c r="E29">
-        <v>632.1</v>
+        <v>258.738</v>
       </c>
       <c r="F29">
-        <v>555.9</v>
+        <v>272.024</v>
       </c>
       <c r="G29">
-        <v>1930.2</v>
+        <v>876.70399999999995</v>
       </c>
       <c r="H29">
-        <v>2901.6</v>
+        <v>1149.777</v>
       </c>
       <c r="I29">
-        <v>147.1</v>
+        <v>54.969000000000001</v>
       </c>
       <c r="J29">
-        <v>432</v>
+        <v>0</v>
       </c>
       <c r="K29">
         <v>0</v>
@@ -3013,78 +3133,78 @@
         <v>0</v>
       </c>
       <c r="N29">
-        <v>360.4</v>
+        <v>128.16200000000001</v>
       </c>
       <c r="O29">
-        <v>875.3</v>
+        <v>142.16300000000001</v>
       </c>
       <c r="P29">
-        <v>440</v>
+        <v>0</v>
       </c>
       <c r="Q29">
-        <v>18.3</v>
+        <v>-3.1850000000000001</v>
       </c>
       <c r="R29">
-        <v>43008</v>
+        <v>39355</v>
       </c>
       <c r="S29">
-        <v>20242</v>
+        <v>0</v>
       </c>
       <c r="T29">
-        <v>2026.3</v>
+        <v>1007.614</v>
       </c>
       <c r="U29">
-        <v>133.4</v>
+        <v>54.145000000000003</v>
       </c>
       <c r="V29">
-        <v>162.6</v>
+        <v>52.655000000000001</v>
       </c>
       <c r="W29">
-        <v>-92</v>
+        <v>-34.631999999999998</v>
       </c>
       <c r="X29">
-        <v>-117.7</v>
+        <v>-45.863</v>
       </c>
       <c r="Y29">
         <v>0</v>
       </c>
       <c r="Z29">
-        <v>0</v>
+        <v>-0.189</v>
       </c>
       <c r="AA29">
-        <v>143.1</v>
+        <v>62.142000000000003</v>
       </c>
     </row>
     <row r="30" spans="1:27" x14ac:dyDescent="0.45">
       <c r="A30" s="1">
-        <v>43100</v>
+        <v>39447</v>
       </c>
       <c r="B30" t="s">
         <v>55</v>
       </c>
       <c r="C30">
-        <v>152.4</v>
+        <v>56.191000000000003</v>
       </c>
       <c r="D30">
-        <v>1088.5</v>
+        <v>519.20600000000002</v>
       </c>
       <c r="E30">
-        <v>607.79999999999995</v>
+        <v>236.33099999999999</v>
       </c>
       <c r="F30">
-        <v>531.20000000000005</v>
+        <v>264.56599999999997</v>
       </c>
       <c r="G30">
-        <v>1935.7</v>
+        <v>880.77099999999996</v>
       </c>
       <c r="H30">
-        <v>2910.5</v>
+        <v>1163.0609999999999</v>
       </c>
       <c r="I30">
-        <v>147.5</v>
+        <v>55.353000000000002</v>
       </c>
       <c r="J30">
-        <v>412</v>
+        <v>0</v>
       </c>
       <c r="K30">
         <v>0</v>
@@ -3096,78 +3216,78 @@
         <v>0</v>
       </c>
       <c r="N30">
-        <v>351</v>
+        <v>137.791</v>
       </c>
       <c r="O30">
-        <v>813.6</v>
+        <v>152.9</v>
       </c>
       <c r="P30">
-        <v>415</v>
+        <v>0</v>
       </c>
       <c r="Q30">
-        <v>-16.5</v>
+        <v>3.0750000000000002</v>
       </c>
       <c r="R30">
-        <v>43100</v>
+        <v>39447</v>
       </c>
       <c r="S30">
-        <v>20565</v>
+        <v>12013</v>
       </c>
       <c r="T30">
-        <v>2096.9</v>
+        <v>1010.1609999999999</v>
       </c>
       <c r="U30">
-        <v>116.9</v>
+        <v>57.22</v>
       </c>
       <c r="V30">
-        <v>129.30000000000001</v>
+        <v>67.466999999999999</v>
       </c>
       <c r="W30">
-        <v>-92</v>
+        <v>0</v>
       </c>
       <c r="X30">
-        <v>-106</v>
+        <v>-50.234000000000002</v>
       </c>
       <c r="Y30">
         <v>0</v>
       </c>
       <c r="Z30">
-        <v>0</v>
+        <v>4.415</v>
       </c>
       <c r="AA30">
-        <v>152.4</v>
+        <v>56.191000000000003</v>
       </c>
     </row>
     <row r="31" spans="1:27" x14ac:dyDescent="0.45">
       <c r="A31" s="1">
-        <v>43190</v>
+        <v>39538</v>
       </c>
       <c r="B31" t="s">
         <v>56</v>
       </c>
       <c r="C31">
-        <v>174.3</v>
+        <v>68.093999999999994</v>
       </c>
       <c r="D31">
-        <v>1185.8</v>
+        <v>566.21</v>
       </c>
       <c r="E31">
-        <v>688.6</v>
+        <v>273.36</v>
       </c>
       <c r="F31">
-        <v>577.6</v>
+        <v>296.63</v>
       </c>
       <c r="G31">
-        <v>2060.3000000000002</v>
+        <v>918.375</v>
       </c>
       <c r="H31">
-        <v>3029.6</v>
+        <v>1222.575</v>
       </c>
       <c r="I31">
-        <v>148.1</v>
+        <v>59.573</v>
       </c>
       <c r="J31">
-        <v>391.9</v>
+        <v>0</v>
       </c>
       <c r="K31">
         <v>0</v>
@@ -3176,81 +3296,81 @@
         <v>0</v>
       </c>
       <c r="M31">
-        <v>-190</v>
+        <v>0</v>
       </c>
       <c r="N31">
-        <v>403</v>
+        <v>167.114</v>
       </c>
       <c r="O31">
-        <v>857.6</v>
+        <v>182.22300000000001</v>
       </c>
       <c r="P31">
-        <v>405</v>
+        <v>0</v>
       </c>
       <c r="Q31">
-        <v>20.2</v>
+        <v>17.992000000000001</v>
       </c>
       <c r="R31">
-        <v>43190</v>
+        <v>39538</v>
       </c>
       <c r="S31">
-        <v>21002</v>
+        <v>0</v>
       </c>
       <c r="T31">
-        <v>2172</v>
+        <v>1040.3520000000001</v>
       </c>
       <c r="U31">
-        <v>137.1</v>
+        <v>75.212000000000003</v>
       </c>
       <c r="V31">
-        <v>159.69999999999999</v>
+        <v>86.736000000000004</v>
       </c>
       <c r="W31">
-        <v>-106.4</v>
+        <v>-37.28</v>
       </c>
       <c r="X31">
-        <v>-112.6</v>
+        <v>-37.28</v>
       </c>
       <c r="Y31">
         <v>0</v>
       </c>
       <c r="Z31">
-        <v>0</v>
+        <v>-2.1999999999999999E-2</v>
       </c>
       <c r="AA31">
-        <v>174.3</v>
+        <v>68.093999999999994</v>
       </c>
     </row>
     <row r="32" spans="1:27" x14ac:dyDescent="0.45">
       <c r="A32" s="1">
-        <v>43281</v>
+        <v>39629</v>
       </c>
       <c r="B32" t="s">
         <v>57</v>
       </c>
       <c r="C32">
-        <v>211.2</v>
+        <v>76.165999999999997</v>
       </c>
       <c r="D32">
-        <v>1267.9000000000001</v>
+        <v>604.21900000000005</v>
       </c>
       <c r="E32">
-        <v>733.7</v>
+        <v>292.05599999999998</v>
       </c>
       <c r="F32">
-        <v>617.70000000000005</v>
+        <v>317.38900000000001</v>
       </c>
       <c r="G32">
-        <v>2140.6999999999998</v>
+        <v>959.01900000000001</v>
       </c>
       <c r="H32">
-        <v>3100.1</v>
+        <v>1270.663</v>
       </c>
       <c r="I32">
-        <v>172.1</v>
+        <v>67.242999999999995</v>
       </c>
       <c r="J32">
-        <v>422.5</v>
+        <v>0</v>
       </c>
       <c r="K32">
         <v>0</v>
@@ -3262,78 +3382,78 @@
         <v>0</v>
       </c>
       <c r="N32">
-        <v>381</v>
+        <v>146.886</v>
       </c>
       <c r="O32">
-        <v>873.5</v>
+        <v>161.995</v>
       </c>
       <c r="P32">
-        <v>425</v>
+        <v>0</v>
       </c>
       <c r="Q32">
-        <v>-1.6</v>
+        <v>1.226</v>
       </c>
       <c r="R32">
-        <v>43281</v>
+        <v>39629</v>
       </c>
       <c r="S32">
-        <v>20855</v>
+        <v>0</v>
       </c>
       <c r="T32">
-        <v>2226.6</v>
+        <v>1108.6679999999999</v>
       </c>
       <c r="U32">
-        <v>135.5</v>
+        <v>76.438000000000002</v>
       </c>
       <c r="V32">
-        <v>151.9</v>
+        <v>27.949000000000002</v>
       </c>
       <c r="W32">
-        <v>-106.3</v>
+        <v>0</v>
       </c>
       <c r="X32">
-        <v>-124.9</v>
+        <v>-8.9440000000000008</v>
       </c>
       <c r="Y32">
         <v>0</v>
       </c>
       <c r="Z32">
-        <v>0</v>
+        <v>-3.7999999999999999E-2</v>
       </c>
       <c r="AA32">
-        <v>211.2</v>
+        <v>76.165999999999997</v>
       </c>
     </row>
     <row r="33" spans="1:27" x14ac:dyDescent="0.45">
       <c r="A33" s="1">
-        <v>43373</v>
+        <v>39721</v>
       </c>
       <c r="B33" t="s">
         <v>58</v>
       </c>
       <c r="C33">
-        <v>197.6</v>
+        <v>72.909000000000006</v>
       </c>
       <c r="D33">
-        <v>1279.8</v>
+        <v>625.03700000000003</v>
       </c>
       <c r="E33">
-        <v>772.5</v>
+        <v>309.18400000000003</v>
       </c>
       <c r="F33">
-        <v>615.79999999999995</v>
+        <v>330.88299999999998</v>
       </c>
       <c r="G33">
-        <v>2225.5</v>
+        <v>981.03399999999999</v>
       </c>
       <c r="H33">
-        <v>3193.9</v>
+        <v>1308.8920000000001</v>
       </c>
       <c r="I33">
-        <v>186</v>
+        <v>74.698999999999998</v>
       </c>
       <c r="J33">
-        <v>387.5</v>
+        <v>0</v>
       </c>
       <c r="K33">
         <v>0</v>
@@ -3345,78 +3465,78 @@
         <v>0</v>
       </c>
       <c r="N33">
-        <v>416.1</v>
+        <v>172.006</v>
       </c>
       <c r="O33">
-        <v>878.3</v>
+        <v>187.11500000000001</v>
       </c>
       <c r="P33">
-        <v>390</v>
+        <v>0</v>
       </c>
       <c r="Q33">
-        <v>-5.8</v>
+        <v>-24.331</v>
       </c>
       <c r="R33">
-        <v>43373</v>
+        <v>39721</v>
       </c>
       <c r="S33">
-        <v>21182</v>
+        <v>0</v>
       </c>
       <c r="T33">
-        <v>2315.6</v>
+        <v>1121.777</v>
       </c>
       <c r="U33">
-        <v>129.69999999999999</v>
+        <v>52.106999999999999</v>
       </c>
       <c r="V33">
-        <v>184.6</v>
+        <v>59.045000000000002</v>
       </c>
       <c r="W33">
-        <v>-114.8</v>
+        <v>-40.091000000000001</v>
       </c>
       <c r="X33">
-        <v>-144.1</v>
+        <v>-57.101999999999997</v>
       </c>
       <c r="Y33">
         <v>0</v>
       </c>
       <c r="Z33">
-        <v>0</v>
+        <v>0.47799999999999998</v>
       </c>
       <c r="AA33">
-        <v>197.6</v>
+        <v>72.909000000000006</v>
       </c>
     </row>
     <row r="34" spans="1:27" x14ac:dyDescent="0.45">
       <c r="A34" s="1">
-        <v>43465</v>
+        <v>39813</v>
       </c>
       <c r="B34" t="s">
         <v>59</v>
       </c>
       <c r="C34">
-        <v>168.8</v>
+        <v>62.536000000000001</v>
       </c>
       <c r="D34">
-        <v>1231.5999999999999</v>
+        <v>544.95899999999995</v>
       </c>
       <c r="E34">
-        <v>714.3</v>
+        <v>244.94</v>
       </c>
       <c r="F34">
-        <v>587.79999999999995</v>
+        <v>291.19</v>
       </c>
       <c r="G34">
-        <v>2316.1999999999998</v>
+        <v>975.40300000000002</v>
       </c>
       <c r="H34">
-        <v>3321.5</v>
+        <v>1304.1489999999999</v>
       </c>
       <c r="I34">
-        <v>193.6</v>
+        <v>63.948999999999998</v>
       </c>
       <c r="J34">
-        <v>497</v>
+        <v>0</v>
       </c>
       <c r="K34">
         <v>0</v>
@@ -3428,78 +3548,78 @@
         <v>0</v>
       </c>
       <c r="N34">
-        <v>437.4</v>
+        <v>147.99299999999999</v>
       </c>
       <c r="O34">
-        <v>1018.8</v>
+        <v>161.88999999999999</v>
       </c>
       <c r="P34">
-        <v>500</v>
+        <v>0</v>
       </c>
       <c r="Q34">
-        <v>37.5</v>
+        <v>33.784999999999997</v>
       </c>
       <c r="R34">
-        <v>43465</v>
+        <v>39813</v>
       </c>
       <c r="S34">
-        <v>21644</v>
+        <v>13634</v>
       </c>
       <c r="T34">
-        <v>2302.6999999999998</v>
+        <v>1142.259</v>
       </c>
       <c r="U34">
-        <v>167.2</v>
+        <v>85.891999999999996</v>
       </c>
       <c r="V34">
-        <v>178</v>
+        <v>86.168000000000006</v>
       </c>
       <c r="W34">
-        <v>-114.4</v>
+        <v>0</v>
       </c>
       <c r="X34">
-        <v>-64.900000000000006</v>
+        <v>-40.106000000000002</v>
       </c>
       <c r="Y34">
         <v>0</v>
       </c>
       <c r="Z34">
-        <v>0</v>
+        <v>-6.0000000000000001E-3</v>
       </c>
       <c r="AA34">
-        <v>168.8</v>
+        <v>62.536000000000001</v>
       </c>
     </row>
     <row r="35" spans="1:27" x14ac:dyDescent="0.45">
       <c r="A35" s="1">
-        <v>43555</v>
+        <v>39903</v>
       </c>
       <c r="B35" t="s">
         <v>60</v>
       </c>
       <c r="C35">
-        <v>194.1</v>
+        <v>48.694000000000003</v>
       </c>
       <c r="D35">
-        <v>1309.3</v>
+        <v>489.34699999999998</v>
       </c>
       <c r="E35">
-        <v>793</v>
+        <v>240.65799999999999</v>
       </c>
       <c r="F35">
-        <v>624.70000000000005</v>
+        <v>258.64800000000002</v>
       </c>
       <c r="G35">
-        <v>2389.1999999999998</v>
+        <v>967.58</v>
       </c>
       <c r="H35">
-        <v>3651.8</v>
+        <v>1302.6489999999999</v>
       </c>
       <c r="I35">
-        <v>183.9</v>
+        <v>51.000999999999998</v>
       </c>
       <c r="J35">
-        <v>484.6</v>
+        <v>0</v>
       </c>
       <c r="K35">
         <v>0</v>
@@ -3508,81 +3628,81 @@
         <v>0</v>
       </c>
       <c r="M35">
-        <v>-240</v>
+        <v>0</v>
       </c>
       <c r="N35">
-        <v>554.6</v>
+        <v>151.441</v>
       </c>
       <c r="O35">
-        <v>1254.5999999999999</v>
+        <v>165.33799999999999</v>
       </c>
       <c r="P35">
-        <v>711.2</v>
+        <v>0</v>
       </c>
       <c r="Q35">
-        <v>18.2</v>
+        <v>23.975000000000001</v>
       </c>
       <c r="R35">
-        <v>43555</v>
+        <v>39903</v>
       </c>
       <c r="S35">
-        <v>22205</v>
+        <v>11033</v>
       </c>
       <c r="T35">
-        <v>2397.1999999999998</v>
+        <v>1137.3109999999999</v>
       </c>
       <c r="U35">
-        <v>185.4</v>
+        <v>109.867</v>
       </c>
       <c r="V35">
-        <v>204.9</v>
+        <v>93.534000000000006</v>
       </c>
       <c r="W35">
-        <v>-123</v>
+        <v>-51.985999999999997</v>
       </c>
       <c r="X35">
-        <v>-134.9</v>
+        <v>-51.985999999999997</v>
       </c>
       <c r="Y35">
-        <v>130.4</v>
+        <v>0</v>
       </c>
       <c r="Z35">
-        <v>0</v>
+        <v>-1.9E-2</v>
       </c>
       <c r="AA35">
-        <v>194.1</v>
+        <v>48.694000000000003</v>
       </c>
     </row>
     <row r="36" spans="1:27" x14ac:dyDescent="0.45">
       <c r="A36" s="1">
-        <v>43646</v>
+        <v>39994</v>
       </c>
       <c r="B36" t="s">
         <v>61</v>
       </c>
       <c r="C36">
-        <v>204.6</v>
+        <v>43.537999999999997</v>
       </c>
       <c r="D36">
-        <v>1368.4</v>
+        <v>474.89400000000001</v>
       </c>
       <c r="E36">
-        <v>819.8</v>
+        <v>228.25700000000001</v>
       </c>
       <c r="F36">
-        <v>641.20000000000005</v>
+        <v>242.505</v>
       </c>
       <c r="G36">
-        <v>2468.3000000000002</v>
+        <v>988.99699999999996</v>
       </c>
       <c r="H36">
-        <v>3756.4</v>
+        <v>1328.684</v>
       </c>
       <c r="I36">
-        <v>203.8</v>
+        <v>54.463000000000001</v>
       </c>
       <c r="J36">
-        <v>497</v>
+        <v>0</v>
       </c>
       <c r="K36">
         <v>0</v>
@@ -3594,78 +3714,78 @@
         <v>0</v>
       </c>
       <c r="N36">
-        <v>527.9</v>
+        <v>127.95</v>
       </c>
       <c r="O36">
-        <v>1252.7</v>
+        <v>141.839</v>
       </c>
       <c r="P36">
-        <v>736.2</v>
+        <v>0</v>
       </c>
       <c r="Q36">
-        <v>-10.4</v>
+        <v>63.8</v>
       </c>
       <c r="R36">
-        <v>43646</v>
+        <v>39994</v>
       </c>
       <c r="S36">
-        <v>22232</v>
+        <v>10421</v>
       </c>
       <c r="T36">
-        <v>2503.6999999999998</v>
+        <v>1186.845</v>
       </c>
       <c r="U36">
-        <v>175</v>
+        <v>173.667</v>
       </c>
       <c r="V36">
-        <v>128.1</v>
+        <v>74.018000000000001</v>
       </c>
       <c r="W36">
-        <v>-123.1</v>
+        <v>0</v>
       </c>
       <c r="X36">
-        <v>-71.099999999999994</v>
+        <v>0</v>
       </c>
       <c r="Y36">
-        <v>141.1</v>
+        <v>0</v>
       </c>
       <c r="Z36">
-        <v>0</v>
+        <v>-5.0000000000000001E-3</v>
       </c>
       <c r="AA36">
-        <v>204.6</v>
+        <v>43.537999999999997</v>
       </c>
     </row>
     <row r="37" spans="1:27" x14ac:dyDescent="0.45">
       <c r="A37" s="1">
-        <v>43738</v>
+        <v>40086</v>
       </c>
       <c r="B37" t="s">
         <v>62</v>
       </c>
       <c r="C37">
-        <v>213.5</v>
+        <v>47.588999999999999</v>
       </c>
       <c r="D37">
-        <v>1379.1</v>
+        <v>489.339</v>
       </c>
       <c r="E37">
-        <v>817.3</v>
+        <v>239.32300000000001</v>
       </c>
       <c r="F37">
-        <v>651.1</v>
+        <v>244.56700000000001</v>
       </c>
       <c r="G37">
-        <v>2500.8000000000002</v>
+        <v>998.09</v>
       </c>
       <c r="H37">
-        <v>3814.2</v>
+        <v>1337.7639999999999</v>
       </c>
       <c r="I37">
-        <v>215.2</v>
+        <v>61.351999999999997</v>
       </c>
       <c r="J37">
-        <v>442</v>
+        <v>0</v>
       </c>
       <c r="K37">
         <v>0</v>
@@ -3677,78 +3797,78 @@
         <v>0</v>
       </c>
       <c r="N37">
-        <v>555.1</v>
+        <v>138.744</v>
       </c>
       <c r="O37">
-        <v>1228.5</v>
+        <v>152.624</v>
       </c>
       <c r="P37">
-        <v>685.4</v>
+        <v>0</v>
       </c>
       <c r="Q37">
-        <v>16.2</v>
+        <v>20.077000000000002</v>
       </c>
       <c r="R37">
-        <v>43738</v>
+        <v>40086</v>
       </c>
       <c r="S37">
-        <v>21938</v>
+        <v>10172</v>
       </c>
       <c r="T37">
-        <v>2585.6999999999998</v>
+        <v>1185.1400000000001</v>
       </c>
       <c r="U37">
-        <v>191.2</v>
+        <v>193.744</v>
       </c>
       <c r="V37">
-        <v>257.3</v>
+        <v>85.632000000000005</v>
       </c>
       <c r="W37">
-        <v>-126.2</v>
+        <v>-54.957000000000001</v>
       </c>
       <c r="X37">
-        <v>-178.3</v>
+        <v>-54.957000000000001</v>
       </c>
       <c r="Y37">
-        <v>144.80000000000001</v>
+        <v>0</v>
       </c>
       <c r="Z37">
-        <v>0</v>
+        <v>-5.125</v>
       </c>
       <c r="AA37">
-        <v>213.5</v>
+        <v>47.588999999999999</v>
       </c>
     </row>
     <row r="38" spans="1:27" x14ac:dyDescent="0.45">
       <c r="A38" s="1">
-        <v>43830</v>
+        <v>40178</v>
       </c>
       <c r="B38" t="s">
         <v>63</v>
       </c>
       <c r="C38">
-        <v>178.7</v>
+        <v>44.536000000000001</v>
       </c>
       <c r="D38">
-        <v>1276.9000000000001</v>
+        <v>476.75</v>
       </c>
       <c r="E38">
-        <v>741.8</v>
+        <v>214.16900000000001</v>
       </c>
       <c r="F38">
-        <v>598.4</v>
+        <v>237.715</v>
       </c>
       <c r="G38">
-        <v>2457.1999999999998</v>
+        <v>982.36400000000003</v>
       </c>
       <c r="H38">
-        <v>3799.9</v>
+        <v>1327.3579999999999</v>
       </c>
       <c r="I38">
-        <v>192.8</v>
+        <v>53.49</v>
       </c>
       <c r="J38">
-        <v>342</v>
+        <v>0</v>
       </c>
       <c r="K38">
         <v>0</v>
@@ -3760,78 +3880,78 @@
         <v>0</v>
       </c>
       <c r="N38">
-        <v>544.70000000000005</v>
+        <v>119.509</v>
       </c>
       <c r="O38">
-        <v>1134.3</v>
+        <v>136.51499999999999</v>
       </c>
       <c r="P38">
-        <v>590.6</v>
+        <v>0</v>
       </c>
       <c r="Q38">
-        <v>-16.3</v>
+        <v>-28.891999999999999</v>
       </c>
       <c r="R38">
-        <v>43830</v>
+        <v>40178</v>
       </c>
       <c r="S38">
-        <v>21948</v>
+        <v>12045</v>
       </c>
       <c r="T38">
-        <v>2665.6</v>
+        <v>1190.8430000000001</v>
       </c>
       <c r="U38">
-        <v>174.9</v>
+        <v>164.852</v>
       </c>
       <c r="V38">
-        <v>252.4</v>
+        <v>52.886000000000003</v>
       </c>
       <c r="W38">
-        <v>-126.3</v>
+        <v>0</v>
       </c>
       <c r="X38">
-        <v>-210.8</v>
+        <v>-41.103999999999999</v>
       </c>
       <c r="Y38">
-        <v>148.19999999999999</v>
+        <v>0</v>
       </c>
       <c r="Z38">
-        <v>0</v>
+        <v>-23.792000000000002</v>
       </c>
       <c r="AA38">
-        <v>178.7</v>
+        <v>44.536000000000001</v>
       </c>
     </row>
     <row r="39" spans="1:27" x14ac:dyDescent="0.45">
       <c r="A39" s="1">
-        <v>43921</v>
+        <v>40268</v>
       </c>
       <c r="B39" t="s">
         <v>64</v>
       </c>
       <c r="C39">
-        <v>202.6</v>
+        <v>56.033999999999999</v>
       </c>
       <c r="D39">
-        <v>1367</v>
+        <v>520.77200000000005</v>
       </c>
       <c r="E39">
-        <v>833.9</v>
+        <v>262.46300000000002</v>
       </c>
       <c r="F39">
-        <v>636.79999999999995</v>
+        <v>265.91300000000001</v>
       </c>
       <c r="G39">
-        <v>2464.3000000000002</v>
+        <v>1029.183</v>
       </c>
       <c r="H39">
-        <v>3934.7</v>
+        <v>1370.2750000000001</v>
       </c>
       <c r="I39">
-        <v>212.1</v>
+        <v>65.778000000000006</v>
       </c>
       <c r="J39">
-        <v>450.1</v>
+        <v>0</v>
       </c>
       <c r="K39">
         <v>0</v>
@@ -3840,81 +3960,81 @@
         <v>0</v>
       </c>
       <c r="M39">
-        <v>-215</v>
+        <v>0</v>
       </c>
       <c r="N39">
-        <v>580.4</v>
+        <v>162.309</v>
       </c>
       <c r="O39">
-        <v>1278.0999999999999</v>
+        <v>179.31</v>
       </c>
       <c r="P39">
-        <v>699.1</v>
+        <v>0</v>
       </c>
       <c r="Q39">
-        <v>-14.2</v>
+        <v>13.97</v>
       </c>
       <c r="R39">
-        <v>43921</v>
+        <v>40268</v>
       </c>
       <c r="S39">
-        <v>22131</v>
+        <v>10104</v>
       </c>
       <c r="T39">
-        <v>2656.6</v>
+        <v>1190.9649999999999</v>
       </c>
       <c r="U39">
-        <v>160.69999999999999</v>
+        <v>178.822</v>
       </c>
       <c r="V39">
-        <v>241.1</v>
+        <v>79.028000000000006</v>
       </c>
       <c r="W39">
-        <v>-143.6</v>
+        <v>-58.972000000000001</v>
       </c>
       <c r="X39">
-        <v>-78.2</v>
+        <v>-58.972000000000001</v>
       </c>
       <c r="Y39">
-        <v>147.69999999999999</v>
+        <v>0</v>
       </c>
       <c r="Z39">
-        <v>0</v>
+        <v>0.98799999999999999</v>
       </c>
       <c r="AA39">
-        <v>202.6</v>
+        <v>56.033999999999999</v>
       </c>
     </row>
     <row r="40" spans="1:27" x14ac:dyDescent="0.45">
       <c r="A40" s="1">
-        <v>44012</v>
+        <v>40359</v>
       </c>
       <c r="B40" t="s">
         <v>65</v>
       </c>
       <c r="C40">
-        <v>238.9</v>
+        <v>69.167000000000002</v>
       </c>
       <c r="D40">
-        <v>1509</v>
+        <v>571.18299999999999</v>
       </c>
       <c r="E40">
-        <v>881.5</v>
+        <v>280.82299999999998</v>
       </c>
       <c r="F40">
-        <v>671.6</v>
+        <v>297.65800000000002</v>
       </c>
       <c r="G40">
-        <v>2606.3000000000002</v>
+        <v>1088.4860000000001</v>
       </c>
       <c r="H40">
-        <v>4085.2</v>
+        <v>1441.855</v>
       </c>
       <c r="I40">
-        <v>194.1</v>
+        <v>71.435000000000002</v>
       </c>
       <c r="J40">
-        <v>405</v>
+        <v>0</v>
       </c>
       <c r="K40">
         <v>0</v>
@@ -3926,78 +4046,78 @@
         <v>0</v>
       </c>
       <c r="N40">
-        <v>631.29999999999995</v>
+        <v>166.16399999999999</v>
       </c>
       <c r="O40">
-        <v>1302.2</v>
+        <v>182.98599999999999</v>
       </c>
       <c r="P40">
-        <v>659.7</v>
+        <v>0</v>
       </c>
       <c r="Q40">
-        <v>40.799999999999997</v>
+        <v>17.57</v>
       </c>
       <c r="R40">
-        <v>44012</v>
+        <v>40359</v>
       </c>
       <c r="S40">
-        <v>20667</v>
+        <v>10300</v>
       </c>
       <c r="T40">
-        <v>2783</v>
+        <v>1258.8689999999999</v>
       </c>
       <c r="U40">
-        <v>201.5</v>
+        <v>196.392</v>
       </c>
       <c r="V40">
-        <v>250.7</v>
+        <v>40.499000000000002</v>
       </c>
       <c r="W40">
-        <v>-143.19999999999999</v>
+        <v>0</v>
       </c>
       <c r="X40">
-        <v>-174.3</v>
+        <v>0</v>
       </c>
       <c r="Y40">
-        <v>158</v>
+        <v>0</v>
       </c>
       <c r="Z40">
-        <v>0</v>
+        <v>-1.0999999999999999E-2</v>
       </c>
       <c r="AA40">
-        <v>238.9</v>
+        <v>69.167000000000002</v>
       </c>
     </row>
     <row r="41" spans="1:27" x14ac:dyDescent="0.45">
       <c r="A41" s="1">
-        <v>44104</v>
+        <v>40451</v>
       </c>
       <c r="B41" t="s">
         <v>66</v>
       </c>
       <c r="C41">
-        <v>221.5</v>
+        <v>74.994</v>
       </c>
       <c r="D41">
-        <v>1413.3</v>
+        <v>603.75</v>
       </c>
       <c r="E41">
-        <v>834.5</v>
+        <v>301.721</v>
       </c>
       <c r="F41">
-        <v>640.6</v>
+        <v>312.64800000000002</v>
       </c>
       <c r="G41">
-        <v>2646.7</v>
+        <v>1116.8030000000001</v>
       </c>
       <c r="H41">
-        <v>4108.6000000000004</v>
+        <v>1469.337</v>
       </c>
       <c r="I41">
-        <v>210.4</v>
+        <v>73.605000000000004</v>
       </c>
       <c r="J41">
-        <v>365</v>
+        <v>0</v>
       </c>
       <c r="K41">
         <v>0</v>
@@ -4009,128 +4129,3448 @@
         <v>0</v>
       </c>
       <c r="N41">
-        <v>603</v>
+        <v>177.143</v>
       </c>
       <c r="O41">
-        <v>1223</v>
+        <v>193.96199999999999</v>
       </c>
       <c r="P41">
-        <v>651.5</v>
+        <v>0</v>
       </c>
       <c r="Q41">
-        <v>130.30000000000001</v>
+        <v>-23.827000000000002</v>
       </c>
       <c r="R41">
-        <v>44104</v>
+        <v>40451</v>
       </c>
       <c r="S41">
-        <v>20336</v>
+        <v>10822</v>
       </c>
       <c r="T41">
-        <v>2885.6</v>
+        <v>1275.375</v>
       </c>
       <c r="U41">
-        <v>331.8</v>
+        <v>172.565</v>
       </c>
       <c r="V41">
-        <v>289</v>
+        <v>46.765999999999998</v>
       </c>
       <c r="W41">
-        <v>-143.4</v>
+        <v>-61.920999999999999</v>
       </c>
       <c r="X41">
-        <v>-131.4</v>
+        <v>-61.920999999999999</v>
       </c>
       <c r="Y41">
-        <v>152.1</v>
+        <v>0</v>
       </c>
       <c r="Z41">
-        <v>0</v>
+        <v>-0.14599999999999999</v>
       </c>
       <c r="AA41">
-        <v>221.5</v>
+        <v>74.994</v>
       </c>
     </row>
     <row r="42" spans="1:27" x14ac:dyDescent="0.45">
       <c r="A42" s="1">
-        <v>44196</v>
+        <v>40543</v>
       </c>
       <c r="B42" t="s">
         <v>67</v>
       </c>
       <c r="C42">
+        <v>65.161000000000001</v>
+      </c>
+      <c r="D42">
+        <v>573.76599999999996</v>
+      </c>
+      <c r="E42">
+        <v>270.13299999999998</v>
+      </c>
+      <c r="F42">
+        <v>298.61700000000002</v>
+      </c>
+      <c r="G42">
+        <v>1085.6980000000001</v>
+      </c>
+      <c r="H42">
+        <v>1468.2829999999999</v>
+      </c>
+      <c r="I42">
+        <v>60.473999999999997</v>
+      </c>
+      <c r="J42">
+        <v>0</v>
+      </c>
+      <c r="K42">
+        <v>0</v>
+      </c>
+      <c r="L42">
+        <v>0</v>
+      </c>
+      <c r="M42">
+        <v>0</v>
+      </c>
+      <c r="N42">
+        <v>162.185</v>
+      </c>
+      <c r="O42">
+        <v>185.77099999999999</v>
+      </c>
+      <c r="P42">
+        <v>0</v>
+      </c>
+      <c r="Q42">
+        <v>-28.872</v>
+      </c>
+      <c r="R42">
+        <v>40543</v>
+      </c>
+      <c r="S42">
+        <v>13285</v>
+      </c>
+      <c r="T42">
+        <v>1282.5119999999999</v>
+      </c>
+      <c r="U42">
+        <v>143.69300000000001</v>
+      </c>
+      <c r="V42">
+        <v>74.194999999999993</v>
+      </c>
+      <c r="W42">
+        <v>-1.2999999999999999E-4</v>
+      </c>
+      <c r="X42">
+        <v>-61.920999999999999</v>
+      </c>
+      <c r="Y42">
+        <v>0</v>
+      </c>
+      <c r="Z42">
+        <v>-1.4119999999999999</v>
+      </c>
+      <c r="AA42">
+        <v>65.161000000000001</v>
+      </c>
+    </row>
+    <row r="43" spans="1:27" x14ac:dyDescent="0.45">
+      <c r="A43" s="1">
+        <v>40633</v>
+      </c>
+      <c r="B43" t="s">
+        <v>68</v>
+      </c>
+      <c r="C43">
+        <v>79.546999999999997</v>
+      </c>
+      <c r="D43">
+        <v>640.58299999999997</v>
+      </c>
+      <c r="E43">
+        <v>325.685</v>
+      </c>
+      <c r="F43">
+        <v>333.38</v>
+      </c>
+      <c r="G43">
+        <v>1132.921</v>
+      </c>
+      <c r="H43">
+        <v>1524.6130000000001</v>
+      </c>
+      <c r="I43">
+        <v>68.519000000000005</v>
+      </c>
+      <c r="J43">
+        <v>0</v>
+      </c>
+      <c r="K43">
+        <v>0</v>
+      </c>
+      <c r="L43">
+        <v>0</v>
+      </c>
+      <c r="M43">
+        <v>0</v>
+      </c>
+      <c r="N43">
+        <v>209.51599999999999</v>
+      </c>
+      <c r="O43">
+        <v>233.096</v>
+      </c>
+      <c r="P43">
+        <v>0</v>
+      </c>
+      <c r="Q43">
+        <v>-18.844999999999999</v>
+      </c>
+      <c r="R43">
+        <v>40633</v>
+      </c>
+      <c r="S43">
+        <v>11433</v>
+      </c>
+      <c r="T43">
+        <v>1291.5170000000001</v>
+      </c>
+      <c r="U43">
+        <v>124.848</v>
+      </c>
+      <c r="V43">
+        <v>74.284000000000006</v>
+      </c>
+      <c r="W43">
+        <v>-73.715000000000003</v>
+      </c>
+      <c r="X43">
+        <v>-73.715000000000003</v>
+      </c>
+      <c r="Y43">
+        <v>0</v>
+      </c>
+      <c r="Z43">
+        <v>0.46300000000000002</v>
+      </c>
+      <c r="AA43">
+        <v>79.546999999999997</v>
+      </c>
+    </row>
+    <row r="44" spans="1:27" x14ac:dyDescent="0.45">
+      <c r="A44" s="1">
+        <v>40724</v>
+      </c>
+      <c r="B44" t="s">
+        <v>69</v>
+      </c>
+      <c r="C44">
+        <v>94.111999999999995</v>
+      </c>
+      <c r="D44">
+        <v>701.73</v>
+      </c>
+      <c r="E44">
+        <v>357.19499999999999</v>
+      </c>
+      <c r="F44">
+        <v>366.233</v>
+      </c>
+      <c r="G44">
+        <v>1171.8150000000001</v>
+      </c>
+      <c r="H44">
+        <v>1581.8710000000001</v>
+      </c>
+      <c r="I44">
+        <v>83.12</v>
+      </c>
+      <c r="J44">
+        <v>0</v>
+      </c>
+      <c r="K44">
+        <v>0</v>
+      </c>
+      <c r="L44">
+        <v>0</v>
+      </c>
+      <c r="M44">
+        <v>0</v>
+      </c>
+      <c r="N44">
+        <v>204.39400000000001</v>
+      </c>
+      <c r="O44">
+        <v>227.7</v>
+      </c>
+      <c r="P44">
+        <v>0</v>
+      </c>
+      <c r="Q44">
+        <v>-35.439</v>
+      </c>
+      <c r="R44">
+        <v>40724</v>
+      </c>
+      <c r="S44">
+        <v>12136</v>
+      </c>
+      <c r="T44">
+        <v>1354.171</v>
+      </c>
+      <c r="U44">
+        <v>89.409000000000006</v>
+      </c>
+      <c r="V44">
+        <v>26.992999999999999</v>
+      </c>
+      <c r="W44">
+        <v>-38.332000000000001</v>
+      </c>
+      <c r="X44">
+        <v>-32.978999999999999</v>
+      </c>
+      <c r="Y44">
+        <v>0</v>
+      </c>
+      <c r="Z44">
+        <v>4.5129999999999999</v>
+      </c>
+      <c r="AA44">
+        <v>94.111999999999995</v>
+      </c>
+    </row>
+    <row r="45" spans="1:27" x14ac:dyDescent="0.45">
+      <c r="A45" s="1">
+        <v>40816</v>
+      </c>
+      <c r="B45" t="s">
+        <v>70</v>
+      </c>
+      <c r="C45">
+        <v>96.799000000000007</v>
+      </c>
+      <c r="D45">
+        <v>726.74199999999996</v>
+      </c>
+      <c r="E45">
+        <v>361.07499999999999</v>
+      </c>
+      <c r="F45">
+        <v>377.38099999999997</v>
+      </c>
+      <c r="G45">
+        <v>1217.364</v>
+      </c>
+      <c r="H45">
+        <v>1651.02</v>
+      </c>
+      <c r="I45">
+        <v>86.838999999999999</v>
+      </c>
+      <c r="J45">
+        <v>0</v>
+      </c>
+      <c r="K45">
+        <v>0</v>
+      </c>
+      <c r="L45">
+        <v>0</v>
+      </c>
+      <c r="M45">
+        <v>0</v>
+      </c>
+      <c r="N45">
+        <v>218.869</v>
+      </c>
+      <c r="O45">
+        <v>242.19399999999999</v>
+      </c>
+      <c r="P45">
+        <v>0</v>
+      </c>
+      <c r="Q45">
+        <v>21.638999999999999</v>
+      </c>
+      <c r="R45">
+        <v>40816</v>
+      </c>
+      <c r="S45">
+        <v>12703</v>
+      </c>
+      <c r="T45">
+        <v>1408.826</v>
+      </c>
+      <c r="U45">
+        <v>111.048</v>
+      </c>
+      <c r="V45">
+        <v>92.903999999999996</v>
+      </c>
+      <c r="W45">
+        <v>-38.366999999999997</v>
+      </c>
+      <c r="X45">
+        <v>-35.213000000000001</v>
+      </c>
+      <c r="Y45">
+        <v>0</v>
+      </c>
+      <c r="Z45">
+        <v>0.04</v>
+      </c>
+      <c r="AA45">
+        <v>96.798000000000002</v>
+      </c>
+    </row>
+    <row r="46" spans="1:27" x14ac:dyDescent="0.45">
+      <c r="A46" s="1">
+        <v>40908</v>
+      </c>
+      <c r="B46" t="s">
+        <v>71</v>
+      </c>
+      <c r="C46">
+        <v>87.471000000000004</v>
+      </c>
+      <c r="D46">
+        <v>697.80399999999997</v>
+      </c>
+      <c r="E46">
+        <v>338.59399999999999</v>
+      </c>
+      <c r="F46">
+        <v>357.178</v>
+      </c>
+      <c r="G46">
+        <v>1236.1379999999999</v>
+      </c>
+      <c r="H46">
+        <v>1684.9480000000001</v>
+      </c>
+      <c r="I46">
+        <v>73.778999999999996</v>
+      </c>
+      <c r="J46">
+        <v>0</v>
+      </c>
+      <c r="K46">
+        <v>0</v>
+      </c>
+      <c r="L46">
+        <v>0</v>
+      </c>
+      <c r="M46">
+        <v>0</v>
+      </c>
+      <c r="N46">
+        <v>187.81800000000001</v>
+      </c>
+      <c r="O46">
+        <v>225.97200000000001</v>
+      </c>
+      <c r="P46">
+        <v>0</v>
+      </c>
+      <c r="Q46">
+        <v>6.6280000000000001</v>
+      </c>
+      <c r="R46">
+        <v>40908</v>
+      </c>
+      <c r="S46">
+        <v>15168</v>
+      </c>
+      <c r="T46">
+        <v>1458.9760000000001</v>
+      </c>
+      <c r="U46">
+        <v>117.676</v>
+      </c>
+      <c r="V46">
+        <v>74.308000000000007</v>
+      </c>
+      <c r="W46">
+        <v>-41.326999999999998</v>
+      </c>
+      <c r="X46">
+        <v>-39.911999999999999</v>
+      </c>
+      <c r="Y46">
+        <v>0</v>
+      </c>
+      <c r="Z46">
+        <v>-0.96199999999999997</v>
+      </c>
+      <c r="AA46">
+        <v>87.471000000000004</v>
+      </c>
+    </row>
+    <row r="47" spans="1:27" x14ac:dyDescent="0.45">
+      <c r="A47" s="1">
+        <v>40999</v>
+      </c>
+      <c r="B47" t="s">
+        <v>72</v>
+      </c>
+      <c r="C47">
+        <v>100.194</v>
+      </c>
+      <c r="D47">
+        <v>768.875</v>
+      </c>
+      <c r="E47">
+        <v>386.88200000000001</v>
+      </c>
+      <c r="F47">
+        <v>394.17700000000002</v>
+      </c>
+      <c r="G47">
+        <v>1349.9749999999999</v>
+      </c>
+      <c r="H47">
+        <v>1813.3320000000001</v>
+      </c>
+      <c r="I47">
+        <v>76.113</v>
+      </c>
+      <c r="J47">
+        <v>0</v>
+      </c>
+      <c r="K47">
+        <v>0</v>
+      </c>
+      <c r="L47">
+        <v>0</v>
+      </c>
+      <c r="M47">
+        <v>0</v>
+      </c>
+      <c r="N47">
+        <v>236.227</v>
+      </c>
+      <c r="O47">
+        <v>274.36399999999998</v>
+      </c>
+      <c r="P47">
+        <v>0</v>
+      </c>
+      <c r="Q47">
+        <v>81.201999999999998</v>
+      </c>
+      <c r="R47">
+        <v>40999</v>
+      </c>
+      <c r="S47">
+        <v>13036</v>
+      </c>
+      <c r="T47">
+        <v>1538.9680000000001</v>
+      </c>
+      <c r="U47">
+        <v>198.87799999999999</v>
+      </c>
+      <c r="V47">
+        <v>132.18799999999999</v>
+      </c>
+      <c r="W47">
+        <v>-50.197000000000003</v>
+      </c>
+      <c r="X47">
+        <v>-24.215</v>
+      </c>
+      <c r="Y47">
+        <v>0</v>
+      </c>
+      <c r="Z47">
+        <v>-2.9000000000000001E-2</v>
+      </c>
+      <c r="AA47">
+        <v>100.194</v>
+      </c>
+    </row>
+    <row r="48" spans="1:27" x14ac:dyDescent="0.45">
+      <c r="A48" s="1">
+        <v>41090</v>
+      </c>
+      <c r="B48" t="s">
+        <v>73</v>
+      </c>
+      <c r="C48">
+        <v>112.306</v>
+      </c>
+      <c r="D48">
+        <v>804.89</v>
+      </c>
+      <c r="E48">
+        <v>399.99299999999999</v>
+      </c>
+      <c r="F48">
+        <v>415.15100000000001</v>
+      </c>
+      <c r="G48">
+        <v>1378.096</v>
+      </c>
+      <c r="H48">
+        <v>1850.7470000000001</v>
+      </c>
+      <c r="I48">
+        <v>81.242999999999995</v>
+      </c>
+      <c r="J48">
+        <v>0</v>
+      </c>
+      <c r="K48">
+        <v>0</v>
+      </c>
+      <c r="L48">
+        <v>0</v>
+      </c>
+      <c r="M48">
+        <v>0</v>
+      </c>
+      <c r="N48">
+        <v>210.51900000000001</v>
+      </c>
+      <c r="O48">
+        <v>249.85</v>
+      </c>
+      <c r="P48">
+        <v>0</v>
+      </c>
+      <c r="Q48">
+        <v>-12.962</v>
+      </c>
+      <c r="R48">
+        <v>41090</v>
+      </c>
+      <c r="S48">
+        <v>13400</v>
+      </c>
+      <c r="T48">
+        <v>1600.8969999999999</v>
+      </c>
+      <c r="U48">
+        <v>185.916</v>
+      </c>
+      <c r="V48">
+        <v>58.243000000000002</v>
+      </c>
+      <c r="W48">
+        <v>-50.332000000000001</v>
+      </c>
+      <c r="X48">
+        <v>-48.01</v>
+      </c>
+      <c r="Y48">
+        <v>0</v>
+      </c>
+      <c r="Z48">
+        <v>2.8000000000000001E-2</v>
+      </c>
+      <c r="AA48">
+        <v>112.306</v>
+      </c>
+    </row>
+    <row r="49" spans="1:27" x14ac:dyDescent="0.45">
+      <c r="A49" s="1">
+        <v>41182</v>
+      </c>
+      <c r="B49" t="s">
+        <v>74</v>
+      </c>
+      <c r="C49">
+        <v>109.32</v>
+      </c>
+      <c r="D49">
+        <v>802.577</v>
+      </c>
+      <c r="E49">
+        <v>411.03300000000002</v>
+      </c>
+      <c r="F49">
+        <v>414.375</v>
+      </c>
+      <c r="G49">
+        <v>1422.89</v>
+      </c>
+      <c r="H49">
+        <v>1919.711</v>
+      </c>
+      <c r="I49">
+        <v>84.882000000000005</v>
+      </c>
+      <c r="J49">
+        <v>0</v>
+      </c>
+      <c r="K49">
+        <v>0</v>
+      </c>
+      <c r="L49">
+        <v>0</v>
+      </c>
+      <c r="M49">
+        <v>0</v>
+      </c>
+      <c r="N49">
+        <v>216.01599999999999</v>
+      </c>
+      <c r="O49">
+        <v>255.333</v>
+      </c>
+      <c r="P49">
+        <v>0</v>
+      </c>
+      <c r="Q49">
+        <v>9.6869999999999994</v>
+      </c>
+      <c r="R49">
+        <v>41182</v>
+      </c>
+      <c r="S49">
+        <v>13549</v>
+      </c>
+      <c r="T49">
+        <v>1664.3779999999999</v>
+      </c>
+      <c r="U49">
+        <v>195.60300000000001</v>
+      </c>
+      <c r="V49">
+        <v>98.665000000000006</v>
+      </c>
+      <c r="W49">
+        <v>-56.280999999999999</v>
+      </c>
+      <c r="X49">
+        <v>-51.843000000000004</v>
+      </c>
+      <c r="Y49">
+        <v>0</v>
+      </c>
+      <c r="Z49">
+        <v>-6.2E-2</v>
+      </c>
+      <c r="AA49">
+        <v>109.32</v>
+      </c>
+    </row>
+    <row r="50" spans="1:27" x14ac:dyDescent="0.45">
+      <c r="A50" s="1">
+        <v>41274</v>
+      </c>
+      <c r="B50" t="s">
+        <v>75</v>
+      </c>
+      <c r="C50">
+        <v>98.715999999999994</v>
+      </c>
+      <c r="D50">
+        <v>757.23500000000001</v>
+      </c>
+      <c r="E50">
+        <v>372.15899999999999</v>
+      </c>
+      <c r="F50">
+        <v>390.82100000000003</v>
+      </c>
+      <c r="G50">
+        <v>1286.6559999999999</v>
+      </c>
+      <c r="H50">
+        <v>1815.8320000000001</v>
+      </c>
+      <c r="I50">
+        <v>78.019000000000005</v>
+      </c>
+      <c r="J50">
+        <v>0</v>
+      </c>
+      <c r="K50">
+        <v>0</v>
+      </c>
+      <c r="L50">
+        <v>0</v>
+      </c>
+      <c r="M50">
+        <v>0</v>
+      </c>
+      <c r="N50">
+        <v>204.17400000000001</v>
+      </c>
+      <c r="O50">
+        <v>255.47200000000001</v>
+      </c>
+      <c r="P50">
+        <v>0</v>
+      </c>
+      <c r="Q50">
+        <v>-115.992</v>
+      </c>
+      <c r="R50">
+        <v>41274</v>
+      </c>
+      <c r="S50">
+        <v>15145</v>
+      </c>
+      <c r="T50">
+        <v>1560.36</v>
+      </c>
+      <c r="U50">
+        <v>79.611000000000004</v>
+      </c>
+      <c r="V50">
+        <v>107.196</v>
+      </c>
+      <c r="W50">
+        <v>-62.388739999999999</v>
+      </c>
+      <c r="X50">
+        <v>-203.44499999999999</v>
+      </c>
+      <c r="Y50">
+        <v>0</v>
+      </c>
+      <c r="Z50">
+        <v>26.873999999999999</v>
+      </c>
+      <c r="AA50">
+        <v>98.715999999999994</v>
+      </c>
+    </row>
+    <row r="51" spans="1:27" x14ac:dyDescent="0.45">
+      <c r="A51" s="1">
+        <v>41364</v>
+      </c>
+      <c r="B51" t="s">
+        <v>76</v>
+      </c>
+      <c r="C51">
+        <v>109.048</v>
+      </c>
+      <c r="D51">
+        <v>806.32600000000002</v>
+      </c>
+      <c r="E51">
+        <v>418.733</v>
+      </c>
+      <c r="F51">
+        <v>421.88</v>
+      </c>
+      <c r="G51">
+        <v>1376.836</v>
+      </c>
+      <c r="H51">
+        <v>1945.296</v>
+      </c>
+      <c r="I51">
+        <v>75.326999999999998</v>
+      </c>
+      <c r="J51">
+        <v>0</v>
+      </c>
+      <c r="K51">
+        <v>0</v>
+      </c>
+      <c r="L51">
+        <v>-20</v>
+      </c>
+      <c r="M51">
+        <v>0</v>
+      </c>
+      <c r="N51">
+        <v>253.09700000000001</v>
+      </c>
+      <c r="O51">
+        <v>304.43299999999999</v>
+      </c>
+      <c r="P51">
+        <v>0</v>
+      </c>
+      <c r="Q51">
+        <v>79.629000000000005</v>
+      </c>
+      <c r="R51">
+        <v>41364</v>
+      </c>
+      <c r="S51">
+        <v>13212</v>
+      </c>
+      <c r="T51">
+        <v>1640.8630000000001</v>
+      </c>
+      <c r="U51">
+        <v>159.24</v>
+      </c>
+      <c r="V51">
+        <v>160.244</v>
+      </c>
+      <c r="W51">
+        <v>-29.661999999999999</v>
+      </c>
+      <c r="X51">
+        <v>-25.887</v>
+      </c>
+      <c r="Y51">
+        <v>0</v>
+      </c>
+      <c r="Z51">
+        <v>-6.3E-2</v>
+      </c>
+      <c r="AA51">
+        <v>109.048</v>
+      </c>
+    </row>
+    <row r="52" spans="1:27" x14ac:dyDescent="0.45">
+      <c r="A52" s="1">
+        <v>41455</v>
+      </c>
+      <c r="B52" t="s">
+        <v>77</v>
+      </c>
+      <c r="C52">
+        <v>121.009</v>
+      </c>
+      <c r="D52">
+        <v>847.596</v>
+      </c>
+      <c r="E52">
+        <v>436.452</v>
+      </c>
+      <c r="F52">
+        <v>442.721</v>
+      </c>
+      <c r="G52">
+        <v>1405.318</v>
+      </c>
+      <c r="H52">
+        <v>1993.443</v>
+      </c>
+      <c r="I52">
+        <v>89.753</v>
+      </c>
+      <c r="J52">
+        <v>0</v>
+      </c>
+      <c r="K52">
+        <v>0</v>
+      </c>
+      <c r="L52">
+        <v>0</v>
+      </c>
+      <c r="M52">
+        <v>0</v>
+      </c>
+      <c r="N52">
+        <v>236.14</v>
+      </c>
+      <c r="O52">
+        <v>287.39100000000002</v>
+      </c>
+      <c r="P52">
+        <v>0</v>
+      </c>
+      <c r="Q52">
+        <v>-36.387</v>
+      </c>
+      <c r="R52">
+        <v>41455</v>
+      </c>
+      <c r="S52">
+        <v>13413</v>
+      </c>
+      <c r="T52">
+        <v>1706.0519999999999</v>
+      </c>
+      <c r="U52">
+        <v>122.85299999999999</v>
+      </c>
+      <c r="V52">
+        <v>53.621000000000002</v>
+      </c>
+      <c r="W52">
+        <v>-59.338000000000001</v>
+      </c>
+      <c r="X52">
+        <v>-53.902000000000001</v>
+      </c>
+      <c r="Y52">
+        <v>0</v>
+      </c>
+      <c r="Z52">
+        <v>-0.02</v>
+      </c>
+      <c r="AA52">
+        <v>121.009</v>
+      </c>
+    </row>
+    <row r="53" spans="1:27" x14ac:dyDescent="0.45">
+      <c r="A53" s="1">
+        <v>41547</v>
+      </c>
+      <c r="B53" t="s">
+        <v>78</v>
+      </c>
+      <c r="C53">
+        <v>119.35</v>
+      </c>
+      <c r="D53">
+        <v>858.42399999999998</v>
+      </c>
+      <c r="E53">
+        <v>453.65199999999999</v>
+      </c>
+      <c r="F53">
+        <v>443.39499999999998</v>
+      </c>
+      <c r="G53">
+        <v>1436.83</v>
+      </c>
+      <c r="H53">
+        <v>2060.4189999999999</v>
+      </c>
+      <c r="I53">
+        <v>105.131</v>
+      </c>
+      <c r="J53">
+        <v>0</v>
+      </c>
+      <c r="K53">
+        <v>0</v>
+      </c>
+      <c r="L53">
+        <v>0</v>
+      </c>
+      <c r="M53">
+        <v>0</v>
+      </c>
+      <c r="N53">
+        <v>259.572</v>
+      </c>
+      <c r="O53">
+        <v>310.78399999999999</v>
+      </c>
+      <c r="P53">
+        <v>0</v>
+      </c>
+      <c r="Q53">
+        <v>-30.663</v>
+      </c>
+      <c r="R53">
+        <v>41547</v>
+      </c>
+      <c r="S53">
+        <v>13963</v>
+      </c>
+      <c r="T53">
+        <v>1749.635</v>
+      </c>
+      <c r="U53">
+        <v>92.19</v>
+      </c>
+      <c r="V53">
+        <v>101.408</v>
+      </c>
+      <c r="W53">
+        <v>-74.218999999999994</v>
+      </c>
+      <c r="X53">
+        <v>-80.789000000000001</v>
+      </c>
+      <c r="Y53">
+        <v>0</v>
+      </c>
+      <c r="Z53">
+        <v>-4.0000000000000001E-3</v>
+      </c>
+      <c r="AA53">
+        <v>119.35</v>
+      </c>
+    </row>
+    <row r="54" spans="1:27" x14ac:dyDescent="0.45">
+      <c r="A54" s="1">
+        <v>41639</v>
+      </c>
+      <c r="B54" t="s">
+        <v>79</v>
+      </c>
+      <c r="C54">
+        <v>99.228999999999999</v>
+      </c>
+      <c r="D54">
+        <v>813.76</v>
+      </c>
+      <c r="E54">
+        <v>414.33100000000002</v>
+      </c>
+      <c r="F54">
+        <v>411.44900000000001</v>
+      </c>
+      <c r="G54">
+        <v>1408.461</v>
+      </c>
+      <c r="H54">
+        <v>2075.7840000000001</v>
+      </c>
+      <c r="I54">
+        <v>91.253</v>
+      </c>
+      <c r="J54">
+        <v>0</v>
+      </c>
+      <c r="K54">
+        <v>0</v>
+      </c>
+      <c r="L54">
+        <v>0</v>
+      </c>
+      <c r="M54">
+        <v>0</v>
+      </c>
+      <c r="N54">
+        <v>239.83199999999999</v>
+      </c>
+      <c r="O54">
+        <v>303.08699999999999</v>
+      </c>
+      <c r="P54">
+        <v>0</v>
+      </c>
+      <c r="Q54">
+        <v>-33.683999999999997</v>
+      </c>
+      <c r="R54">
+        <v>41639</v>
+      </c>
+      <c r="S54">
+        <v>17277</v>
+      </c>
+      <c r="T54">
+        <v>1772.6969999999999</v>
+      </c>
+      <c r="U54">
+        <v>58.506</v>
+      </c>
+      <c r="V54">
+        <v>100.84699999999999</v>
+      </c>
+      <c r="W54">
+        <v>-74.236999999999995</v>
+      </c>
+      <c r="X54">
+        <v>-73.864999999999995</v>
+      </c>
+      <c r="Y54">
+        <v>0</v>
+      </c>
+      <c r="Z54">
+        <v>-0.01</v>
+      </c>
+      <c r="AA54">
+        <v>99.228999999999999</v>
+      </c>
+    </row>
+    <row r="55" spans="1:27" x14ac:dyDescent="0.45">
+      <c r="A55" s="1">
+        <v>41729</v>
+      </c>
+      <c r="B55" t="s">
+        <v>80</v>
+      </c>
+      <c r="C55">
+        <v>111.931</v>
+      </c>
+      <c r="D55">
+        <v>876.50099999999998</v>
+      </c>
+      <c r="E55">
+        <v>473.18099999999998</v>
+      </c>
+      <c r="F55">
+        <v>448.47800000000001</v>
+      </c>
+      <c r="G55">
+        <v>1475.492</v>
+      </c>
+      <c r="H55">
+        <v>2165.1060000000002</v>
+      </c>
+      <c r="I55">
+        <v>105.697</v>
+      </c>
+      <c r="J55">
+        <v>0</v>
+      </c>
+      <c r="K55">
+        <v>0</v>
+      </c>
+      <c r="L55">
+        <v>-140</v>
+      </c>
+      <c r="M55">
+        <v>0</v>
+      </c>
+      <c r="N55">
+        <v>301.52600000000001</v>
+      </c>
+      <c r="O55">
+        <v>364.78199999999998</v>
+      </c>
+      <c r="P55">
+        <v>0</v>
+      </c>
+      <c r="Q55">
+        <v>30.515000000000001</v>
+      </c>
+      <c r="R55">
+        <v>41729</v>
+      </c>
+      <c r="S55">
+        <v>15040</v>
+      </c>
+      <c r="T55">
+        <v>1800.3240000000001</v>
+      </c>
+      <c r="U55">
+        <v>89.021000000000001</v>
+      </c>
+      <c r="V55">
+        <v>143.298</v>
+      </c>
+      <c r="W55">
+        <v>-74.192999999999998</v>
+      </c>
+      <c r="X55">
+        <v>-80.849000000000004</v>
+      </c>
+      <c r="Y55">
+        <v>0</v>
+      </c>
+      <c r="Z55">
+        <v>-2E-3</v>
+      </c>
+      <c r="AA55">
+        <v>111.931</v>
+      </c>
+    </row>
+    <row r="56" spans="1:27" x14ac:dyDescent="0.45">
+      <c r="A56" s="1">
+        <v>41820</v>
+      </c>
+      <c r="B56" t="s">
+        <v>81</v>
+      </c>
+      <c r="C56">
+        <v>130.51400000000001</v>
+      </c>
+      <c r="D56">
+        <v>949.93799999999999</v>
+      </c>
+      <c r="E56">
+        <v>502.33</v>
+      </c>
+      <c r="F56">
+        <v>482.66699999999997</v>
+      </c>
+      <c r="G56">
+        <v>1555.7819999999999</v>
+      </c>
+      <c r="H56">
+        <v>2282.973</v>
+      </c>
+      <c r="I56">
+        <v>109.488</v>
+      </c>
+      <c r="J56">
+        <v>0</v>
+      </c>
+      <c r="K56">
+        <v>70</v>
+      </c>
+      <c r="L56">
+        <v>0</v>
+      </c>
+      <c r="M56">
+        <v>0</v>
+      </c>
+      <c r="N56">
+        <v>351.46300000000002</v>
+      </c>
+      <c r="O56">
+        <v>414.84899999999999</v>
+      </c>
+      <c r="P56">
+        <v>70</v>
+      </c>
+      <c r="Q56">
+        <v>16.919</v>
+      </c>
+      <c r="R56">
+        <v>41820</v>
+      </c>
+      <c r="S56">
+        <v>15427</v>
+      </c>
+      <c r="T56">
+        <v>1868.124</v>
+      </c>
+      <c r="U56">
+        <v>105.94</v>
+      </c>
+      <c r="V56">
+        <v>79.631</v>
+      </c>
+      <c r="W56">
+        <v>-74.16</v>
+      </c>
+      <c r="X56">
+        <v>0.28000000000000003</v>
+      </c>
+      <c r="Y56">
+        <v>0</v>
+      </c>
+      <c r="Z56">
+        <v>0</v>
+      </c>
+      <c r="AA56">
+        <v>130.51400000000001</v>
+      </c>
+    </row>
+    <row r="57" spans="1:27" x14ac:dyDescent="0.45">
+      <c r="A57" s="1">
+        <v>41912</v>
+      </c>
+      <c r="B57" t="s">
+        <v>82</v>
+      </c>
+      <c r="C57">
+        <v>133.31399999999999</v>
+      </c>
+      <c r="D57">
+        <v>980.81399999999996</v>
+      </c>
+      <c r="E57">
+        <v>522.26499999999999</v>
+      </c>
+      <c r="F57">
+        <v>498.69299999999998</v>
+      </c>
+      <c r="G57">
+        <v>1619.405</v>
+      </c>
+      <c r="H57">
+        <v>2372.9949999999999</v>
+      </c>
+      <c r="I57">
+        <v>112.57899999999999</v>
+      </c>
+      <c r="J57">
+        <v>0</v>
+      </c>
+      <c r="K57">
+        <v>105</v>
+      </c>
+      <c r="L57">
+        <v>0</v>
+      </c>
+      <c r="M57">
+        <v>0</v>
+      </c>
+      <c r="N57">
+        <v>407.90300000000002</v>
+      </c>
+      <c r="O57">
+        <v>471.42200000000003</v>
+      </c>
+      <c r="P57">
+        <v>105</v>
+      </c>
+      <c r="Q57">
+        <v>10.388999999999999</v>
+      </c>
+      <c r="R57">
+        <v>41912</v>
+      </c>
+      <c r="S57">
+        <v>15866</v>
+      </c>
+      <c r="T57">
+        <v>1901.5730000000001</v>
+      </c>
+      <c r="U57">
+        <v>116.32899999999999</v>
+      </c>
+      <c r="V57">
+        <v>110.01300000000001</v>
+      </c>
+      <c r="W57">
+        <v>-74.192999999999998</v>
+      </c>
+      <c r="X57">
+        <v>-54.713000000000001</v>
+      </c>
+      <c r="Y57">
+        <v>0</v>
+      </c>
+      <c r="Z57">
+        <v>0.45300000000000001</v>
+      </c>
+      <c r="AA57">
+        <v>133.31399999999999</v>
+      </c>
+    </row>
+    <row r="58" spans="1:27" x14ac:dyDescent="0.45">
+      <c r="A58" s="1">
+        <v>42004</v>
+      </c>
+      <c r="B58" t="s">
+        <v>83</v>
+      </c>
+      <c r="C58">
+        <v>118.39100000000001</v>
+      </c>
+      <c r="D58">
+        <v>926.25400000000002</v>
+      </c>
+      <c r="E58">
+        <v>462.077</v>
+      </c>
+      <c r="F58">
+        <v>467.56400000000002</v>
+      </c>
+      <c r="G58">
+        <v>1583.2650000000001</v>
+      </c>
+      <c r="H58">
+        <v>2359.1019999999999</v>
+      </c>
+      <c r="I58">
+        <v>103.90900000000001</v>
+      </c>
+      <c r="J58">
+        <v>0</v>
+      </c>
+      <c r="K58">
+        <v>90</v>
+      </c>
+      <c r="L58">
+        <v>0</v>
+      </c>
+      <c r="M58">
+        <v>0</v>
+      </c>
+      <c r="N58">
+        <v>375.35300000000001</v>
+      </c>
+      <c r="O58">
+        <v>443.88499999999999</v>
+      </c>
+      <c r="P58">
+        <v>90</v>
+      </c>
+      <c r="Q58">
+        <v>-1.833</v>
+      </c>
+      <c r="R58">
+        <v>42004</v>
+      </c>
+      <c r="S58">
+        <v>18417</v>
+      </c>
+      <c r="T58">
+        <v>1915.2170000000001</v>
+      </c>
+      <c r="U58">
+        <v>114.496</v>
+      </c>
+      <c r="V58">
+        <v>166.45</v>
+      </c>
+      <c r="W58">
+        <v>-74.034999999999997</v>
+      </c>
+      <c r="X58">
+        <v>-114.45</v>
+      </c>
+      <c r="Y58">
+        <v>0</v>
+      </c>
+      <c r="Z58">
+        <v>0</v>
+      </c>
+      <c r="AA58">
+        <v>118.39100000000001</v>
+      </c>
+    </row>
+    <row r="59" spans="1:27" x14ac:dyDescent="0.45">
+      <c r="A59" s="1">
+        <v>42094</v>
+      </c>
+      <c r="B59" t="s">
+        <v>84</v>
+      </c>
+      <c r="C59">
+        <v>127.60599999999999</v>
+      </c>
+      <c r="D59">
+        <v>953.31700000000001</v>
+      </c>
+      <c r="E59">
+        <v>521.09400000000005</v>
+      </c>
+      <c r="F59">
+        <v>484.05</v>
+      </c>
+      <c r="G59">
+        <v>1628.9469999999999</v>
+      </c>
+      <c r="H59">
+        <v>2423.9369999999999</v>
+      </c>
+      <c r="I59">
+        <v>132.23400000000001</v>
+      </c>
+      <c r="J59">
+        <v>0</v>
+      </c>
+      <c r="K59">
+        <v>125</v>
+      </c>
+      <c r="L59">
+        <v>0</v>
+      </c>
+      <c r="M59">
+        <v>-140</v>
+      </c>
+      <c r="N59">
+        <v>492.363</v>
+      </c>
+      <c r="O59">
+        <v>561.12400000000002</v>
+      </c>
+      <c r="P59">
+        <v>125</v>
+      </c>
+      <c r="Q59">
+        <v>6.2939999999999996</v>
+      </c>
+      <c r="R59">
+        <v>42094</v>
+      </c>
+      <c r="S59">
+        <v>0</v>
+      </c>
+      <c r="T59">
+        <v>1862.8130000000001</v>
+      </c>
+      <c r="U59">
+        <v>120.79</v>
+      </c>
+      <c r="V59">
+        <v>180.10499999999999</v>
+      </c>
+      <c r="W59">
+        <v>-82.846000000000004</v>
+      </c>
+      <c r="X59">
+        <v>-127.18</v>
+      </c>
+      <c r="Y59">
+        <v>0</v>
+      </c>
+      <c r="Z59">
+        <v>0</v>
+      </c>
+      <c r="AA59">
+        <v>127.60599999999999</v>
+      </c>
+    </row>
+    <row r="60" spans="1:27" x14ac:dyDescent="0.45">
+      <c r="A60" s="1">
+        <v>42185</v>
+      </c>
+      <c r="B60" t="s">
+        <v>85</v>
+      </c>
+      <c r="C60">
+        <v>140.357</v>
+      </c>
+      <c r="D60">
+        <v>997.827</v>
+      </c>
+      <c r="E60">
+        <v>537.65</v>
+      </c>
+      <c r="F60">
+        <v>502.08699999999999</v>
+      </c>
+      <c r="G60">
+        <v>1663.373</v>
+      </c>
+      <c r="H60">
+        <v>2480.9319999999998</v>
+      </c>
+      <c r="I60">
+        <v>133.47200000000001</v>
+      </c>
+      <c r="J60">
+        <v>250.42500000000001</v>
+      </c>
+      <c r="K60">
+        <v>0</v>
+      </c>
+      <c r="L60">
+        <v>0</v>
+      </c>
+      <c r="M60">
+        <v>0</v>
+      </c>
+      <c r="N60">
+        <v>396.57600000000002</v>
+      </c>
+      <c r="O60">
+        <v>716.94799999999998</v>
+      </c>
+      <c r="P60">
+        <v>330</v>
+      </c>
+      <c r="Q60">
+        <v>0.376</v>
+      </c>
+      <c r="R60">
+        <v>42185</v>
+      </c>
+      <c r="S60">
+        <v>19527</v>
+      </c>
+      <c r="T60">
+        <v>1763.9839999999999</v>
+      </c>
+      <c r="U60">
+        <v>121.166</v>
+      </c>
+      <c r="V60">
+        <v>81.049000000000007</v>
+      </c>
+      <c r="W60">
+        <v>-81.89</v>
+      </c>
+      <c r="X60">
+        <v>-39.795999999999999</v>
+      </c>
+      <c r="Y60">
+        <v>0</v>
+      </c>
+      <c r="Z60">
+        <v>0</v>
+      </c>
+      <c r="AA60">
+        <v>140.357</v>
+      </c>
+    </row>
+    <row r="61" spans="1:27" x14ac:dyDescent="0.45">
+      <c r="A61" s="1">
+        <v>42277</v>
+      </c>
+      <c r="B61" t="s">
+        <v>86</v>
+      </c>
+      <c r="C61">
+        <v>136.494</v>
+      </c>
+      <c r="D61">
+        <v>995.25</v>
+      </c>
+      <c r="E61">
+        <v>537.05499999999995</v>
+      </c>
+      <c r="F61">
+        <v>502.22500000000002</v>
+      </c>
+      <c r="G61">
+        <v>1672.99</v>
+      </c>
+      <c r="H61">
+        <v>2495.277</v>
+      </c>
+      <c r="I61">
+        <v>131.97900000000001</v>
+      </c>
+      <c r="J61">
+        <v>273.49</v>
+      </c>
+      <c r="K61">
+        <v>0</v>
+      </c>
+      <c r="L61">
+        <v>0</v>
+      </c>
+      <c r="M61">
+        <v>0</v>
+      </c>
+      <c r="N61">
+        <v>368.28</v>
+      </c>
+      <c r="O61">
+        <v>711.78599999999994</v>
+      </c>
+      <c r="P61">
+        <v>315</v>
+      </c>
+      <c r="Q61">
+        <v>-9.391</v>
+      </c>
+      <c r="R61">
+        <v>42277</v>
+      </c>
+      <c r="S61">
+        <v>19979</v>
+      </c>
+      <c r="T61">
+        <v>1783.491</v>
+      </c>
+      <c r="U61">
+        <v>111.77500000000001</v>
+      </c>
+      <c r="V61">
+        <v>140.83099999999999</v>
+      </c>
+      <c r="W61">
+        <v>-81.247</v>
+      </c>
+      <c r="X61">
+        <v>-116.452</v>
+      </c>
+      <c r="Y61">
+        <v>0</v>
+      </c>
+      <c r="Z61">
+        <v>0</v>
+      </c>
+      <c r="AA61">
+        <v>136.494</v>
+      </c>
+    </row>
+    <row r="62" spans="1:27" x14ac:dyDescent="0.45">
+      <c r="A62" s="1">
+        <v>42369</v>
+      </c>
+      <c r="B62" t="s">
+        <v>87</v>
+      </c>
+      <c r="C62">
+        <v>111.904</v>
+      </c>
+      <c r="D62">
+        <v>922.79300000000001</v>
+      </c>
+      <c r="E62">
+        <v>468.375</v>
+      </c>
+      <c r="F62">
+        <v>460.572</v>
+      </c>
+      <c r="G62">
+        <v>1664.7760000000001</v>
+      </c>
+      <c r="H62">
+        <v>2532.462</v>
+      </c>
+      <c r="I62">
+        <v>125.973</v>
+      </c>
+      <c r="J62">
+        <v>302.95</v>
+      </c>
+      <c r="K62">
+        <v>0</v>
+      </c>
+      <c r="L62">
+        <v>0</v>
+      </c>
+      <c r="M62">
+        <v>0</v>
+      </c>
+      <c r="N62">
+        <v>373.166</v>
+      </c>
+      <c r="O62">
+        <v>731.173</v>
+      </c>
+      <c r="P62">
+        <v>365</v>
+      </c>
+      <c r="Q62">
+        <v>17.244</v>
+      </c>
+      <c r="R62">
+        <v>42369</v>
+      </c>
+      <c r="S62">
+        <v>20746</v>
+      </c>
+      <c r="T62">
+        <v>1801.289</v>
+      </c>
+      <c r="U62">
+        <v>129.01900000000001</v>
+      </c>
+      <c r="V62">
+        <v>144.95500000000001</v>
+      </c>
+      <c r="W62">
+        <v>-81.117999999999995</v>
+      </c>
+      <c r="X62">
+        <v>-54.134999999999998</v>
+      </c>
+      <c r="Y62">
+        <v>0</v>
+      </c>
+      <c r="Z62">
+        <v>0</v>
+      </c>
+      <c r="AA62">
+        <v>111.904</v>
+      </c>
+    </row>
+    <row r="63" spans="1:27" x14ac:dyDescent="0.45">
+      <c r="A63" s="1">
+        <v>42460</v>
+      </c>
+      <c r="B63" t="s">
+        <v>88</v>
+      </c>
+      <c r="C63">
+        <v>126.2</v>
+      </c>
+      <c r="D63">
+        <v>986.7</v>
+      </c>
+      <c r="E63">
+        <v>533.48500000000001</v>
+      </c>
+      <c r="F63">
+        <v>491.5</v>
+      </c>
+      <c r="G63">
+        <v>1767.18</v>
+      </c>
+      <c r="H63">
+        <v>2642.7809999999999</v>
+      </c>
+      <c r="I63">
+        <v>158.49600000000001</v>
+      </c>
+      <c r="J63">
+        <v>362.39</v>
+      </c>
+      <c r="K63">
+        <v>0</v>
+      </c>
+      <c r="L63">
+        <v>0</v>
+      </c>
+      <c r="M63">
+        <v>-175</v>
+      </c>
+      <c r="N63">
+        <v>401.673</v>
+      </c>
+      <c r="O63">
+        <v>820.90499999999997</v>
+      </c>
+      <c r="P63">
+        <v>370</v>
+      </c>
+      <c r="Q63">
+        <v>21.6</v>
+      </c>
+      <c r="R63">
+        <v>42460</v>
+      </c>
+      <c r="S63">
+        <v>20509</v>
+      </c>
+      <c r="T63">
+        <v>1821.876</v>
+      </c>
+      <c r="U63">
+        <v>150.55199999999999</v>
+      </c>
+      <c r="V63">
+        <v>166.5</v>
+      </c>
+      <c r="W63">
+        <v>-86.5</v>
+      </c>
+      <c r="X63">
+        <v>-120.5</v>
+      </c>
+      <c r="Y63">
+        <v>0</v>
+      </c>
+      <c r="Z63">
+        <v>0</v>
+      </c>
+      <c r="AA63">
+        <v>126.2</v>
+      </c>
+    </row>
+    <row r="64" spans="1:27" x14ac:dyDescent="0.45">
+      <c r="A64" s="1">
+        <v>42551</v>
+      </c>
+      <c r="B64" t="s">
+        <v>89</v>
+      </c>
+      <c r="C64">
+        <v>131.5</v>
+      </c>
+      <c r="D64">
+        <v>1014.3</v>
+      </c>
+      <c r="E64">
+        <v>537.34100000000001</v>
+      </c>
+      <c r="F64">
+        <v>501.6</v>
+      </c>
+      <c r="G64">
+        <v>1790.9059999999999</v>
+      </c>
+      <c r="H64">
+        <v>2699.136</v>
+      </c>
+      <c r="I64">
+        <v>158.69800000000001</v>
+      </c>
+      <c r="J64">
+        <v>362.39</v>
+      </c>
+      <c r="K64">
+        <v>0</v>
+      </c>
+      <c r="L64">
+        <v>0</v>
+      </c>
+      <c r="M64">
+        <v>0</v>
+      </c>
+      <c r="N64">
+        <v>411.18200000000002</v>
+      </c>
+      <c r="O64">
+        <v>830.97400000000005</v>
+      </c>
+      <c r="P64">
+        <v>430</v>
+      </c>
+      <c r="Q64">
+        <v>4.8</v>
+      </c>
+      <c r="R64">
+        <v>42551</v>
+      </c>
+      <c r="S64">
+        <v>20324</v>
+      </c>
+      <c r="T64">
+        <v>1868.162</v>
+      </c>
+      <c r="U64">
+        <v>155.458</v>
+      </c>
+      <c r="V64">
+        <v>87</v>
+      </c>
+      <c r="W64">
+        <v>-86.7</v>
+      </c>
+      <c r="X64">
+        <v>-24.8</v>
+      </c>
+      <c r="Y64">
+        <v>0</v>
+      </c>
+      <c r="Z64">
+        <v>0</v>
+      </c>
+      <c r="AA64">
+        <v>131.5</v>
+      </c>
+    </row>
+    <row r="65" spans="1:27" x14ac:dyDescent="0.45">
+      <c r="A65" s="1">
+        <v>42643</v>
+      </c>
+      <c r="B65" t="s">
+        <v>90</v>
+      </c>
+      <c r="C65">
+        <v>126.9</v>
+      </c>
+      <c r="D65">
+        <v>1013.1</v>
+      </c>
+      <c r="E65">
+        <v>543.74400000000003</v>
+      </c>
+      <c r="F65">
+        <v>499.8</v>
+      </c>
+      <c r="G65">
+        <v>1777.662</v>
+      </c>
+      <c r="H65">
+        <v>2730.4679999999998</v>
+      </c>
+      <c r="I65">
+        <v>117.765</v>
+      </c>
+      <c r="J65">
+        <v>432.39</v>
+      </c>
+      <c r="K65">
+        <v>0</v>
+      </c>
+      <c r="L65">
+        <v>0</v>
+      </c>
+      <c r="M65">
+        <v>0</v>
+      </c>
+      <c r="N65">
+        <v>331.065</v>
+      </c>
+      <c r="O65">
+        <v>821.17</v>
+      </c>
+      <c r="P65">
+        <v>445</v>
+      </c>
+      <c r="Q65">
+        <v>-8.4</v>
+      </c>
+      <c r="R65">
+        <v>42643</v>
+      </c>
+      <c r="S65">
+        <v>19864</v>
+      </c>
+      <c r="T65">
+        <v>1909.298</v>
+      </c>
+      <c r="U65">
+        <v>146.983</v>
+      </c>
+      <c r="V65">
+        <v>133.4</v>
+      </c>
+      <c r="W65">
+        <v>-86.7</v>
+      </c>
+      <c r="X65">
+        <v>-69.099999999999994</v>
+      </c>
+      <c r="Y65">
+        <v>0</v>
+      </c>
+      <c r="Z65">
+        <v>0</v>
+      </c>
+      <c r="AA65">
+        <v>126.9</v>
+      </c>
+    </row>
+    <row r="66" spans="1:27" x14ac:dyDescent="0.45">
+      <c r="A66" s="1">
+        <v>42735</v>
+      </c>
+      <c r="B66" t="s">
+        <v>91</v>
+      </c>
+      <c r="C66">
+        <v>114.8</v>
+      </c>
+      <c r="D66">
+        <v>947.9</v>
+      </c>
+      <c r="E66">
+        <v>499.7</v>
+      </c>
+      <c r="F66">
+        <v>471.9</v>
+      </c>
+      <c r="G66">
+        <v>1720.8</v>
+      </c>
+      <c r="H66">
+        <v>2668.9</v>
+      </c>
+      <c r="I66">
+        <v>108.8</v>
+      </c>
+      <c r="J66">
+        <v>379.5</v>
+      </c>
+      <c r="K66">
+        <v>0</v>
+      </c>
+      <c r="L66">
+        <v>0</v>
+      </c>
+      <c r="M66">
+        <v>0</v>
+      </c>
+      <c r="N66">
+        <v>275.7</v>
+      </c>
+      <c r="O66">
+        <v>735.8</v>
+      </c>
+      <c r="P66">
+        <v>390</v>
+      </c>
+      <c r="Q66">
+        <v>-34.299999999999997</v>
+      </c>
+      <c r="R66">
+        <v>42735</v>
+      </c>
+      <c r="S66">
+        <v>19624</v>
+      </c>
+      <c r="T66">
+        <v>1933.1</v>
+      </c>
+      <c r="U66">
+        <v>112.7</v>
+      </c>
+      <c r="V66">
+        <v>133</v>
+      </c>
+      <c r="W66">
+        <v>-86.7</v>
+      </c>
+      <c r="X66">
+        <v>-132.4</v>
+      </c>
+      <c r="Y66">
+        <v>0</v>
+      </c>
+      <c r="Z66">
+        <v>0</v>
+      </c>
+      <c r="AA66">
+        <v>114.8</v>
+      </c>
+    </row>
+    <row r="67" spans="1:27" x14ac:dyDescent="0.45">
+      <c r="A67" s="1">
+        <v>42825</v>
+      </c>
+      <c r="B67" t="s">
+        <v>92</v>
+      </c>
+      <c r="C67">
+        <v>134.19999999999999</v>
+      </c>
+      <c r="D67">
+        <v>1047.7</v>
+      </c>
+      <c r="E67">
+        <v>574.70000000000005</v>
+      </c>
+      <c r="F67">
+        <v>518</v>
+      </c>
+      <c r="G67">
+        <v>1810.7</v>
+      </c>
+      <c r="H67">
+        <v>2786.4</v>
+      </c>
+      <c r="I67">
+        <v>129.69999999999999</v>
+      </c>
+      <c r="J67">
+        <v>354.1</v>
+      </c>
+      <c r="K67">
+        <v>0</v>
+      </c>
+      <c r="L67">
+        <v>0</v>
+      </c>
+      <c r="M67">
+        <v>-265</v>
+      </c>
+      <c r="N67">
+        <v>369.6</v>
+      </c>
+      <c r="O67">
+        <v>804.7</v>
+      </c>
+      <c r="P67">
+        <v>365</v>
+      </c>
+      <c r="Q67">
+        <v>21.6</v>
+      </c>
+      <c r="R67">
+        <v>42825</v>
+      </c>
+      <c r="S67">
+        <v>19822</v>
+      </c>
+      <c r="T67">
+        <v>1981.7</v>
+      </c>
+      <c r="U67">
+        <v>134.30000000000001</v>
+      </c>
+      <c r="V67">
+        <v>210.4</v>
+      </c>
+      <c r="W67">
+        <v>-92.6</v>
+      </c>
+      <c r="X67">
+        <v>-114.7</v>
+      </c>
+      <c r="Y67">
+        <v>0</v>
+      </c>
+      <c r="Z67">
+        <v>0</v>
+      </c>
+      <c r="AA67">
+        <v>134.19999999999999</v>
+      </c>
+    </row>
+    <row r="68" spans="1:27" x14ac:dyDescent="0.45">
+      <c r="A68" s="1">
+        <v>42916</v>
+      </c>
+      <c r="B68" t="s">
+        <v>93</v>
+      </c>
+      <c r="C68">
+        <v>148.9</v>
+      </c>
+      <c r="D68">
+        <v>1121.5</v>
+      </c>
+      <c r="E68">
+        <v>613.5</v>
+      </c>
+      <c r="F68">
+        <v>558.5</v>
+      </c>
+      <c r="G68">
+        <v>1872.9</v>
+      </c>
+      <c r="H68">
+        <v>2851.4</v>
+      </c>
+      <c r="I68">
+        <v>141.19999999999999</v>
+      </c>
+      <c r="J68">
+        <v>436.2</v>
+      </c>
+      <c r="K68">
+        <v>0</v>
+      </c>
+      <c r="L68">
+        <v>0</v>
+      </c>
+      <c r="M68">
+        <v>0</v>
+      </c>
+      <c r="N68">
+        <v>342.3</v>
+      </c>
+      <c r="O68">
+        <v>859.9</v>
+      </c>
+      <c r="P68">
+        <v>445</v>
+      </c>
+      <c r="Q68">
+        <v>-19.2</v>
+      </c>
+      <c r="R68">
+        <v>42916</v>
+      </c>
+      <c r="S68">
+        <v>20174</v>
+      </c>
+      <c r="T68">
+        <v>1991.5</v>
+      </c>
+      <c r="U68">
+        <v>115.1</v>
+      </c>
+      <c r="V68">
+        <v>82.9</v>
+      </c>
+      <c r="W68">
+        <v>-92.5</v>
+      </c>
+      <c r="X68">
+        <v>-68.8</v>
+      </c>
+      <c r="Y68">
+        <v>0</v>
+      </c>
+      <c r="Z68">
+        <v>0</v>
+      </c>
+      <c r="AA68">
+        <v>148.9</v>
+      </c>
+    </row>
+    <row r="69" spans="1:27" x14ac:dyDescent="0.45">
+      <c r="A69" s="1">
+        <v>43008</v>
+      </c>
+      <c r="B69" t="s">
+        <v>94</v>
+      </c>
+      <c r="C69">
+        <v>143.1</v>
+      </c>
+      <c r="D69">
+        <v>1132.8</v>
+      </c>
+      <c r="E69">
+        <v>632.1</v>
+      </c>
+      <c r="F69">
+        <v>555.9</v>
+      </c>
+      <c r="G69">
+        <v>1930.2</v>
+      </c>
+      <c r="H69">
+        <v>2901.6</v>
+      </c>
+      <c r="I69">
+        <v>147.1</v>
+      </c>
+      <c r="J69">
+        <v>432</v>
+      </c>
+      <c r="K69">
+        <v>0</v>
+      </c>
+      <c r="L69">
+        <v>0</v>
+      </c>
+      <c r="M69">
+        <v>0</v>
+      </c>
+      <c r="N69">
+        <v>360.4</v>
+      </c>
+      <c r="O69">
+        <v>875.3</v>
+      </c>
+      <c r="P69">
+        <v>440</v>
+      </c>
+      <c r="Q69">
+        <v>18.3</v>
+      </c>
+      <c r="R69">
+        <v>43008</v>
+      </c>
+      <c r="S69">
+        <v>20242</v>
+      </c>
+      <c r="T69">
+        <v>2026.3</v>
+      </c>
+      <c r="U69">
+        <v>133.4</v>
+      </c>
+      <c r="V69">
+        <v>162.6</v>
+      </c>
+      <c r="W69">
+        <v>-92</v>
+      </c>
+      <c r="X69">
+        <v>-117.7</v>
+      </c>
+      <c r="Y69">
+        <v>0</v>
+      </c>
+      <c r="Z69">
+        <v>0</v>
+      </c>
+      <c r="AA69">
+        <v>143.1</v>
+      </c>
+    </row>
+    <row r="70" spans="1:27" x14ac:dyDescent="0.45">
+      <c r="A70" s="1">
+        <v>43100</v>
+      </c>
+      <c r="B70" t="s">
+        <v>95</v>
+      </c>
+      <c r="C70">
+        <v>152.4</v>
+      </c>
+      <c r="D70">
+        <v>1088.5</v>
+      </c>
+      <c r="E70">
+        <v>607.79999999999995</v>
+      </c>
+      <c r="F70">
+        <v>531.20000000000005</v>
+      </c>
+      <c r="G70">
+        <v>1935.7</v>
+      </c>
+      <c r="H70">
+        <v>2910.5</v>
+      </c>
+      <c r="I70">
+        <v>147.5</v>
+      </c>
+      <c r="J70">
+        <v>412</v>
+      </c>
+      <c r="K70">
+        <v>0</v>
+      </c>
+      <c r="L70">
+        <v>0</v>
+      </c>
+      <c r="M70">
+        <v>0</v>
+      </c>
+      <c r="N70">
+        <v>351</v>
+      </c>
+      <c r="O70">
+        <v>813.6</v>
+      </c>
+      <c r="P70">
+        <v>415</v>
+      </c>
+      <c r="Q70">
+        <v>-16.5</v>
+      </c>
+      <c r="R70">
+        <v>43100</v>
+      </c>
+      <c r="S70">
+        <v>20565</v>
+      </c>
+      <c r="T70">
+        <v>2096.9</v>
+      </c>
+      <c r="U70">
+        <v>116.9</v>
+      </c>
+      <c r="V70">
+        <v>129.30000000000001</v>
+      </c>
+      <c r="W70">
+        <v>-92</v>
+      </c>
+      <c r="X70">
+        <v>-106</v>
+      </c>
+      <c r="Y70">
+        <v>0</v>
+      </c>
+      <c r="Z70">
+        <v>0</v>
+      </c>
+      <c r="AA70">
+        <v>152.4</v>
+      </c>
+    </row>
+    <row r="71" spans="1:27" x14ac:dyDescent="0.45">
+      <c r="A71" s="1">
+        <v>43190</v>
+      </c>
+      <c r="B71" t="s">
+        <v>96</v>
+      </c>
+      <c r="C71">
+        <v>174.3</v>
+      </c>
+      <c r="D71">
+        <v>1185.8</v>
+      </c>
+      <c r="E71">
+        <v>688.6</v>
+      </c>
+      <c r="F71">
+        <v>577.6</v>
+      </c>
+      <c r="G71">
+        <v>2060.3000000000002</v>
+      </c>
+      <c r="H71">
+        <v>3029.6</v>
+      </c>
+      <c r="I71">
+        <v>148.1</v>
+      </c>
+      <c r="J71">
+        <v>391.9</v>
+      </c>
+      <c r="K71">
+        <v>0</v>
+      </c>
+      <c r="L71">
+        <v>0</v>
+      </c>
+      <c r="M71">
+        <v>-190</v>
+      </c>
+      <c r="N71">
+        <v>403</v>
+      </c>
+      <c r="O71">
+        <v>857.6</v>
+      </c>
+      <c r="P71">
+        <v>405</v>
+      </c>
+      <c r="Q71">
+        <v>20.2</v>
+      </c>
+      <c r="R71">
+        <v>43190</v>
+      </c>
+      <c r="S71">
+        <v>21002</v>
+      </c>
+      <c r="T71">
+        <v>2172</v>
+      </c>
+      <c r="U71">
+        <v>137.1</v>
+      </c>
+      <c r="V71">
+        <v>159.69999999999999</v>
+      </c>
+      <c r="W71">
+        <v>-106.4</v>
+      </c>
+      <c r="X71">
+        <v>-112.6</v>
+      </c>
+      <c r="Y71">
+        <v>0</v>
+      </c>
+      <c r="Z71">
+        <v>0</v>
+      </c>
+      <c r="AA71">
+        <v>174.3</v>
+      </c>
+    </row>
+    <row r="72" spans="1:27" x14ac:dyDescent="0.45">
+      <c r="A72" s="1">
+        <v>43281</v>
+      </c>
+      <c r="B72" t="s">
+        <v>97</v>
+      </c>
+      <c r="C72">
+        <v>211.2</v>
+      </c>
+      <c r="D72">
+        <v>1267.9000000000001</v>
+      </c>
+      <c r="E72">
+        <v>733.7</v>
+      </c>
+      <c r="F72">
+        <v>617.70000000000005</v>
+      </c>
+      <c r="G72">
+        <v>2140.6999999999998</v>
+      </c>
+      <c r="H72">
+        <v>3100.1</v>
+      </c>
+      <c r="I72">
+        <v>172.1</v>
+      </c>
+      <c r="J72">
+        <v>422.5</v>
+      </c>
+      <c r="K72">
+        <v>0</v>
+      </c>
+      <c r="L72">
+        <v>0</v>
+      </c>
+      <c r="M72">
+        <v>0</v>
+      </c>
+      <c r="N72">
+        <v>381</v>
+      </c>
+      <c r="O72">
+        <v>873.5</v>
+      </c>
+      <c r="P72">
+        <v>425</v>
+      </c>
+      <c r="Q72">
+        <v>-1.6</v>
+      </c>
+      <c r="R72">
+        <v>43281</v>
+      </c>
+      <c r="S72">
+        <v>20855</v>
+      </c>
+      <c r="T72">
+        <v>2226.6</v>
+      </c>
+      <c r="U72">
+        <v>135.5</v>
+      </c>
+      <c r="V72">
+        <v>151.9</v>
+      </c>
+      <c r="W72">
+        <v>-106.3</v>
+      </c>
+      <c r="X72">
+        <v>-124.9</v>
+      </c>
+      <c r="Y72">
+        <v>0</v>
+      </c>
+      <c r="Z72">
+        <v>0</v>
+      </c>
+      <c r="AA72">
+        <v>211.2</v>
+      </c>
+    </row>
+    <row r="73" spans="1:27" x14ac:dyDescent="0.45">
+      <c r="A73" s="1">
+        <v>43373</v>
+      </c>
+      <c r="B73" t="s">
+        <v>98</v>
+      </c>
+      <c r="C73">
+        <v>197.6</v>
+      </c>
+      <c r="D73">
+        <v>1279.8</v>
+      </c>
+      <c r="E73">
+        <v>772.5</v>
+      </c>
+      <c r="F73">
+        <v>615.79999999999995</v>
+      </c>
+      <c r="G73">
+        <v>2225.5</v>
+      </c>
+      <c r="H73">
+        <v>3193.9</v>
+      </c>
+      <c r="I73">
+        <v>186</v>
+      </c>
+      <c r="J73">
+        <v>387.5</v>
+      </c>
+      <c r="K73">
+        <v>0</v>
+      </c>
+      <c r="L73">
+        <v>0</v>
+      </c>
+      <c r="M73">
+        <v>0</v>
+      </c>
+      <c r="N73">
+        <v>416.1</v>
+      </c>
+      <c r="O73">
+        <v>878.3</v>
+      </c>
+      <c r="P73">
+        <v>390</v>
+      </c>
+      <c r="Q73">
+        <v>-5.8</v>
+      </c>
+      <c r="R73">
+        <v>43373</v>
+      </c>
+      <c r="S73">
+        <v>21182</v>
+      </c>
+      <c r="T73">
+        <v>2315.6</v>
+      </c>
+      <c r="U73">
+        <v>129.69999999999999</v>
+      </c>
+      <c r="V73">
+        <v>184.6</v>
+      </c>
+      <c r="W73">
+        <v>-114.8</v>
+      </c>
+      <c r="X73">
+        <v>-144.1</v>
+      </c>
+      <c r="Y73">
+        <v>0</v>
+      </c>
+      <c r="Z73">
+        <v>0</v>
+      </c>
+      <c r="AA73">
+        <v>197.6</v>
+      </c>
+    </row>
+    <row r="74" spans="1:27" x14ac:dyDescent="0.45">
+      <c r="A74" s="1">
+        <v>43465</v>
+      </c>
+      <c r="B74" t="s">
+        <v>99</v>
+      </c>
+      <c r="C74">
+        <v>168.8</v>
+      </c>
+      <c r="D74">
+        <v>1231.5999999999999</v>
+      </c>
+      <c r="E74">
+        <v>714.3</v>
+      </c>
+      <c r="F74">
+        <v>587.79999999999995</v>
+      </c>
+      <c r="G74">
+        <v>2316.1999999999998</v>
+      </c>
+      <c r="H74">
+        <v>3321.5</v>
+      </c>
+      <c r="I74">
+        <v>193.6</v>
+      </c>
+      <c r="J74">
+        <v>497</v>
+      </c>
+      <c r="K74">
+        <v>0</v>
+      </c>
+      <c r="L74">
+        <v>0</v>
+      </c>
+      <c r="M74">
+        <v>0</v>
+      </c>
+      <c r="N74">
+        <v>437.4</v>
+      </c>
+      <c r="O74">
+        <v>1018.8</v>
+      </c>
+      <c r="P74">
+        <v>500</v>
+      </c>
+      <c r="Q74">
+        <v>37.5</v>
+      </c>
+      <c r="R74">
+        <v>43465</v>
+      </c>
+      <c r="S74">
+        <v>21644</v>
+      </c>
+      <c r="T74">
+        <v>2302.6999999999998</v>
+      </c>
+      <c r="U74">
+        <v>167.2</v>
+      </c>
+      <c r="V74">
+        <v>178</v>
+      </c>
+      <c r="W74">
+        <v>-114.4</v>
+      </c>
+      <c r="X74">
+        <v>-64.900000000000006</v>
+      </c>
+      <c r="Y74">
+        <v>0</v>
+      </c>
+      <c r="Z74">
+        <v>0</v>
+      </c>
+      <c r="AA74">
+        <v>168.8</v>
+      </c>
+    </row>
+    <row r="75" spans="1:27" x14ac:dyDescent="0.45">
+      <c r="A75" s="1">
+        <v>43555</v>
+      </c>
+      <c r="B75" t="s">
+        <v>100</v>
+      </c>
+      <c r="C75">
+        <v>194.1</v>
+      </c>
+      <c r="D75">
+        <v>1309.3</v>
+      </c>
+      <c r="E75">
+        <v>793</v>
+      </c>
+      <c r="F75">
+        <v>624.70000000000005</v>
+      </c>
+      <c r="G75">
+        <v>2389.1999999999998</v>
+      </c>
+      <c r="H75">
+        <v>3651.8</v>
+      </c>
+      <c r="I75">
+        <v>183.9</v>
+      </c>
+      <c r="J75">
+        <v>484.6</v>
+      </c>
+      <c r="K75">
+        <v>0</v>
+      </c>
+      <c r="L75">
+        <v>0</v>
+      </c>
+      <c r="M75">
+        <v>-240</v>
+      </c>
+      <c r="N75">
+        <v>554.6</v>
+      </c>
+      <c r="O75">
+        <v>1254.5999999999999</v>
+      </c>
+      <c r="P75">
+        <v>711.2</v>
+      </c>
+      <c r="Q75">
+        <v>18.2</v>
+      </c>
+      <c r="R75">
+        <v>43555</v>
+      </c>
+      <c r="S75">
+        <v>22205</v>
+      </c>
+      <c r="T75">
+        <v>2397.1999999999998</v>
+      </c>
+      <c r="U75">
+        <v>185.4</v>
+      </c>
+      <c r="V75">
+        <v>204.9</v>
+      </c>
+      <c r="W75">
+        <v>-123</v>
+      </c>
+      <c r="X75">
+        <v>-134.9</v>
+      </c>
+      <c r="Y75">
+        <v>130.4</v>
+      </c>
+      <c r="Z75">
+        <v>0</v>
+      </c>
+      <c r="AA75">
+        <v>194.1</v>
+      </c>
+    </row>
+    <row r="76" spans="1:27" x14ac:dyDescent="0.45">
+      <c r="A76" s="1">
+        <v>43646</v>
+      </c>
+      <c r="B76" t="s">
+        <v>101</v>
+      </c>
+      <c r="C76">
+        <v>204.6</v>
+      </c>
+      <c r="D76">
+        <v>1368.4</v>
+      </c>
+      <c r="E76">
+        <v>819.8</v>
+      </c>
+      <c r="F76">
+        <v>641.20000000000005</v>
+      </c>
+      <c r="G76">
+        <v>2468.3000000000002</v>
+      </c>
+      <c r="H76">
+        <v>3756.4</v>
+      </c>
+      <c r="I76">
+        <v>203.8</v>
+      </c>
+      <c r="J76">
+        <v>497</v>
+      </c>
+      <c r="K76">
+        <v>0</v>
+      </c>
+      <c r="L76">
+        <v>0</v>
+      </c>
+      <c r="M76">
+        <v>0</v>
+      </c>
+      <c r="N76">
+        <v>527.9</v>
+      </c>
+      <c r="O76">
+        <v>1252.7</v>
+      </c>
+      <c r="P76">
+        <v>736.2</v>
+      </c>
+      <c r="Q76">
+        <v>-10.4</v>
+      </c>
+      <c r="R76">
+        <v>43646</v>
+      </c>
+      <c r="S76">
+        <v>22232</v>
+      </c>
+      <c r="T76">
+        <v>2503.6999999999998</v>
+      </c>
+      <c r="U76">
+        <v>175</v>
+      </c>
+      <c r="V76">
+        <v>128.1</v>
+      </c>
+      <c r="W76">
+        <v>-123.1</v>
+      </c>
+      <c r="X76">
+        <v>-71.099999999999994</v>
+      </c>
+      <c r="Y76">
+        <v>141.1</v>
+      </c>
+      <c r="Z76">
+        <v>0</v>
+      </c>
+      <c r="AA76">
+        <v>204.6</v>
+      </c>
+    </row>
+    <row r="77" spans="1:27" x14ac:dyDescent="0.45">
+      <c r="A77" s="1">
+        <v>43738</v>
+      </c>
+      <c r="B77" t="s">
+        <v>102</v>
+      </c>
+      <c r="C77">
+        <v>213.5</v>
+      </c>
+      <c r="D77">
+        <v>1379.1</v>
+      </c>
+      <c r="E77">
+        <v>817.3</v>
+      </c>
+      <c r="F77">
+        <v>651.1</v>
+      </c>
+      <c r="G77">
+        <v>2500.8000000000002</v>
+      </c>
+      <c r="H77">
+        <v>3814.2</v>
+      </c>
+      <c r="I77">
+        <v>215.2</v>
+      </c>
+      <c r="J77">
+        <v>442</v>
+      </c>
+      <c r="K77">
+        <v>0</v>
+      </c>
+      <c r="L77">
+        <v>0</v>
+      </c>
+      <c r="M77">
+        <v>0</v>
+      </c>
+      <c r="N77">
+        <v>555.1</v>
+      </c>
+      <c r="O77">
+        <v>1228.5</v>
+      </c>
+      <c r="P77">
+        <v>685.4</v>
+      </c>
+      <c r="Q77">
+        <v>16.2</v>
+      </c>
+      <c r="R77">
+        <v>43738</v>
+      </c>
+      <c r="S77">
+        <v>21938</v>
+      </c>
+      <c r="T77">
+        <v>2585.6999999999998</v>
+      </c>
+      <c r="U77">
+        <v>191.2</v>
+      </c>
+      <c r="V77">
+        <v>257.3</v>
+      </c>
+      <c r="W77">
+        <v>-126.2</v>
+      </c>
+      <c r="X77">
+        <v>-178.3</v>
+      </c>
+      <c r="Y77">
+        <v>144.80000000000001</v>
+      </c>
+      <c r="Z77">
+        <v>0</v>
+      </c>
+      <c r="AA77">
+        <v>213.5</v>
+      </c>
+    </row>
+    <row r="78" spans="1:27" x14ac:dyDescent="0.45">
+      <c r="A78" s="1">
+        <v>43830</v>
+      </c>
+      <c r="B78" t="s">
+        <v>103</v>
+      </c>
+      <c r="C78">
+        <v>178.7</v>
+      </c>
+      <c r="D78">
+        <v>1276.9000000000001</v>
+      </c>
+      <c r="E78">
+        <v>741.8</v>
+      </c>
+      <c r="F78">
+        <v>598.4</v>
+      </c>
+      <c r="G78">
+        <v>2457.1999999999998</v>
+      </c>
+      <c r="H78">
+        <v>3799.9</v>
+      </c>
+      <c r="I78">
+        <v>192.8</v>
+      </c>
+      <c r="J78">
+        <v>342</v>
+      </c>
+      <c r="K78">
+        <v>0</v>
+      </c>
+      <c r="L78">
+        <v>0</v>
+      </c>
+      <c r="M78">
+        <v>0</v>
+      </c>
+      <c r="N78">
+        <v>544.70000000000005</v>
+      </c>
+      <c r="O78">
+        <v>1134.3</v>
+      </c>
+      <c r="P78">
+        <v>590.6</v>
+      </c>
+      <c r="Q78">
+        <v>-16.3</v>
+      </c>
+      <c r="R78">
+        <v>43830</v>
+      </c>
+      <c r="S78">
+        <v>21948</v>
+      </c>
+      <c r="T78">
+        <v>2665.6</v>
+      </c>
+      <c r="U78">
+        <v>174.9</v>
+      </c>
+      <c r="V78">
+        <v>252.4</v>
+      </c>
+      <c r="W78">
+        <v>-126.3</v>
+      </c>
+      <c r="X78">
+        <v>-210.8</v>
+      </c>
+      <c r="Y78">
+        <v>148.19999999999999</v>
+      </c>
+      <c r="Z78">
+        <v>0</v>
+      </c>
+      <c r="AA78">
+        <v>178.7</v>
+      </c>
+    </row>
+    <row r="79" spans="1:27" x14ac:dyDescent="0.45">
+      <c r="A79" s="1">
+        <v>43921</v>
+      </c>
+      <c r="B79" t="s">
+        <v>104</v>
+      </c>
+      <c r="C79">
+        <v>202.6</v>
+      </c>
+      <c r="D79">
+        <v>1367</v>
+      </c>
+      <c r="E79">
+        <v>833.9</v>
+      </c>
+      <c r="F79">
+        <v>636.79999999999995</v>
+      </c>
+      <c r="G79">
+        <v>2464.3000000000002</v>
+      </c>
+      <c r="H79">
+        <v>3934.7</v>
+      </c>
+      <c r="I79">
+        <v>212.1</v>
+      </c>
+      <c r="J79">
+        <v>450.1</v>
+      </c>
+      <c r="K79">
+        <v>0</v>
+      </c>
+      <c r="L79">
+        <v>0</v>
+      </c>
+      <c r="M79">
+        <v>-215</v>
+      </c>
+      <c r="N79">
+        <v>580.4</v>
+      </c>
+      <c r="O79">
+        <v>1278.0999999999999</v>
+      </c>
+      <c r="P79">
+        <v>699.1</v>
+      </c>
+      <c r="Q79">
+        <v>-14.2</v>
+      </c>
+      <c r="R79">
+        <v>43921</v>
+      </c>
+      <c r="S79">
+        <v>22131</v>
+      </c>
+      <c r="T79">
+        <v>2656.6</v>
+      </c>
+      <c r="U79">
+        <v>160.69999999999999</v>
+      </c>
+      <c r="V79">
+        <v>241.1</v>
+      </c>
+      <c r="W79">
+        <v>-143.6</v>
+      </c>
+      <c r="X79">
+        <v>-78.2</v>
+      </c>
+      <c r="Y79">
+        <v>147.69999999999999</v>
+      </c>
+      <c r="Z79">
+        <v>0</v>
+      </c>
+      <c r="AA79">
+        <v>202.6</v>
+      </c>
+    </row>
+    <row r="80" spans="1:27" x14ac:dyDescent="0.45">
+      <c r="A80" s="1">
+        <v>44012</v>
+      </c>
+      <c r="B80" t="s">
+        <v>105</v>
+      </c>
+      <c r="C80">
+        <v>238.9</v>
+      </c>
+      <c r="D80">
+        <v>1509</v>
+      </c>
+      <c r="E80">
+        <v>881.5</v>
+      </c>
+      <c r="F80">
+        <v>671.6</v>
+      </c>
+      <c r="G80">
+        <v>2606.3000000000002</v>
+      </c>
+      <c r="H80">
+        <v>4085.2</v>
+      </c>
+      <c r="I80">
+        <v>194.1</v>
+      </c>
+      <c r="J80">
+        <v>405</v>
+      </c>
+      <c r="K80">
+        <v>0</v>
+      </c>
+      <c r="L80">
+        <v>0</v>
+      </c>
+      <c r="M80">
+        <v>0</v>
+      </c>
+      <c r="N80">
+        <v>631.29999999999995</v>
+      </c>
+      <c r="O80">
+        <v>1302.2</v>
+      </c>
+      <c r="P80">
+        <v>659.7</v>
+      </c>
+      <c r="Q80">
+        <v>40.799999999999997</v>
+      </c>
+      <c r="R80">
+        <v>44012</v>
+      </c>
+      <c r="S80">
+        <v>20667</v>
+      </c>
+      <c r="T80">
+        <v>2783</v>
+      </c>
+      <c r="U80">
+        <v>201.5</v>
+      </c>
+      <c r="V80">
+        <v>250.7</v>
+      </c>
+      <c r="W80">
+        <v>-143.19999999999999</v>
+      </c>
+      <c r="X80">
+        <v>-174.3</v>
+      </c>
+      <c r="Y80">
+        <v>158</v>
+      </c>
+      <c r="Z80">
+        <v>0</v>
+      </c>
+      <c r="AA80">
+        <v>238.9</v>
+      </c>
+    </row>
+    <row r="81" spans="1:27" x14ac:dyDescent="0.45">
+      <c r="A81" s="1">
+        <v>44104</v>
+      </c>
+      <c r="B81" t="s">
+        <v>106</v>
+      </c>
+      <c r="C81">
+        <v>221.5</v>
+      </c>
+      <c r="D81">
+        <v>1413.3</v>
+      </c>
+      <c r="E81">
+        <v>834.5</v>
+      </c>
+      <c r="F81">
+        <v>640.6</v>
+      </c>
+      <c r="G81">
+        <v>2646.7</v>
+      </c>
+      <c r="H81">
+        <v>4108.6000000000004</v>
+      </c>
+      <c r="I81">
+        <v>210.4</v>
+      </c>
+      <c r="J81">
+        <v>365</v>
+      </c>
+      <c r="K81">
+        <v>0</v>
+      </c>
+      <c r="L81">
+        <v>0</v>
+      </c>
+      <c r="M81">
+        <v>0</v>
+      </c>
+      <c r="N81">
+        <v>603</v>
+      </c>
+      <c r="O81">
+        <v>1223</v>
+      </c>
+      <c r="P81">
+        <v>651.5</v>
+      </c>
+      <c r="Q81">
+        <v>130.30000000000001</v>
+      </c>
+      <c r="R81">
+        <v>44104</v>
+      </c>
+      <c r="S81">
+        <v>20336</v>
+      </c>
+      <c r="T81">
+        <v>2885.6</v>
+      </c>
+      <c r="U81">
+        <v>331.8</v>
+      </c>
+      <c r="V81">
+        <v>289</v>
+      </c>
+      <c r="W81">
+        <v>-143.4</v>
+      </c>
+      <c r="X81">
+        <v>-131.4</v>
+      </c>
+      <c r="Y81">
+        <v>152.1</v>
+      </c>
+      <c r="Z81">
+        <v>0</v>
+      </c>
+      <c r="AA81">
+        <v>221.5</v>
+      </c>
+    </row>
+    <row r="82" spans="1:27" x14ac:dyDescent="0.45">
+      <c r="A82" s="1">
+        <v>44196</v>
+      </c>
+      <c r="B82" t="s">
+        <v>107</v>
+      </c>
+      <c r="C82">
         <v>196.1</v>
       </c>
-      <c r="D42">
+      <c r="D82">
         <v>1358</v>
       </c>
-      <c r="E42">
+      <c r="E82">
         <v>769.4</v>
       </c>
-      <c r="F42">
+      <c r="F82">
         <v>618.79999999999995</v>
       </c>
-      <c r="G42">
+      <c r="G82">
         <v>2499.6</v>
       </c>
-      <c r="H42">
+      <c r="H82">
         <v>3964.7</v>
       </c>
-      <c r="I42">
+      <c r="I82">
         <v>207</v>
       </c>
-      <c r="J42">
+      <c r="J82">
         <v>365</v>
       </c>
-      <c r="K42">
-        <v>0</v>
-      </c>
-      <c r="L42">
-        <v>0</v>
-      </c>
-      <c r="M42">
-        <v>0</v>
-      </c>
-      <c r="N42">
+      <c r="K82">
+        <v>0</v>
+      </c>
+      <c r="L82">
+        <v>0</v>
+      </c>
+      <c r="M82">
+        <v>0</v>
+      </c>
+      <c r="N82">
         <v>612.70000000000005</v>
       </c>
-      <c r="O42">
+      <c r="O82">
         <v>1231.5</v>
       </c>
-      <c r="P42">
+      <c r="P82">
         <v>650.1</v>
       </c>
-      <c r="Q42">
+      <c r="Q82">
         <v>-86.1</v>
       </c>
-      <c r="R42">
+      <c r="R82">
         <v>44196</v>
       </c>
-      <c r="S42">
+      <c r="S82">
         <v>17836</v>
       </c>
-      <c r="T42">
+      <c r="T82">
         <v>2733.2</v>
       </c>
-      <c r="U42">
+      <c r="U82">
         <v>245.7</v>
       </c>
-      <c r="V42">
+      <c r="V82">
         <v>321</v>
       </c>
-      <c r="W42">
+      <c r="W82">
         <v>-143.65714</v>
       </c>
-      <c r="X42">
+      <c r="X82">
         <v>-370.5</v>
       </c>
-      <c r="Y42">
+      <c r="Y82">
         <v>151.5</v>
       </c>
-      <c r="Z42">
-        <v>0</v>
-      </c>
-      <c r="AA42">
+      <c r="Z82">
+        <v>0</v>
+      </c>
+      <c r="AA82">
         <v>196.1</v>
       </c>
     </row>
